--- a/datos_salida/Recorrido_Estaciones_Unidades.xlsx
+++ b/datos_salida/Recorrido_Estaciones_Unidades.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -793,7 +793,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -842,7 +842,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -891,7 +891,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -9733,7 +9733,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -9782,7 +9782,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -9831,7 +9831,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -10196,7 +10196,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -11617,7 +11617,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -11715,7 +11715,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -11764,7 +11764,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -14410,7 +14410,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -14508,7 +14508,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -14557,7 +14557,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -14922,7 +14922,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -14971,7 +14971,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -15020,7 +15020,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -15069,7 +15069,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -16343,7 +16343,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -16392,7 +16392,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -16441,7 +16441,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -16490,7 +16490,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORPORACIÓN ENRIQUE &amp; JANIS </t>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -19185,7 +19185,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -19234,7 +19234,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -19283,7 +19283,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">MULTITRANS RR </t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="D96" t="n">

--- a/datos_salida/Recorrido_Estaciones_Unidades.xlsx
+++ b/datos_salida/Recorrido_Estaciones_Unidades.xlsx
@@ -7,10 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Turno 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Turno 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Turno 3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Turno 4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Vuelta 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Vuelta 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Vuelta 3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14598,4730 +14597,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K96"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Placa de tracto</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Capacidad total</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t># Compartimentos</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Orden de llegada</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Destinatario</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t># Distrito</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Estación</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Dirección</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Grupo</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ACG-766</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>P294</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>BARRANCA</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>E/S SAN JOSÉ</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Av. Panamericana Nte. 928, Barranca 15169</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ACG-766</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>P118</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>BARRANCA</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>E/S BARRANCA</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Pje. Callao 104, Barranca 15169</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ACG-766</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>P113</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>HUARAL</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>E/S HUARALINO</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Chancay 351, Huaral 15202</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ACG-766</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>P135</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ATE</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>E/S ATE 1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Tomas Alva Edison 160, Lima 15022</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ACG-766</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>10400</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>P292</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>LURIN</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>E/S SAN CARLOS</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>P4H3+35F, Lurín 15823</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AWJ-767</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>P113</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>HUARAL</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>E/S HUARALINO</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Chancay 351, Huaral 15202</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>AWJ-767</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>P135</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ATE</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>E/S ATE 1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Tomas Alva Edison 160, Lima 15022</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>AWJ-767</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>P292</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>LURIN</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>E/S SAN CARLOS</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>P4H3+35F, Lurín 15823</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>AWJ-767</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>MAGDALENA DEL MAR</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>E/S FLORA TRISTAN</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Av Javier Prado Oeste 2504, Magdalena del Mar 15076</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>BJL-708</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>INVERSIONES JULIO III</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>P292</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>LURIN</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>E/S SAN CARLOS</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>P4H3+35F, Lurín 15823</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>BJL-708</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>INVERSIONES JULIO III</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>MAGDALENA DEL MAR</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>E/S FLORA TRISTAN</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Av Javier Prado Oeste 2504, Magdalena del Mar 15076</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>AYR-771</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>P132</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>SAN MARTÍN DE PORRES</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>E/S TOMÁS VALLE</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>AYR-771</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>P317</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>CERCADO DE LIMA</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>E/S TINGO MARIA</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Avenida Tingo Maria Chacra Rios Sur 1711, Cercado de Lima 15083</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>AYR-771</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>P191</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>CALLAO</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>E/S MARCO POLO</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Av. Marco Polo, Callao 07021</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>AYR-771</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>P160</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PUEBLO LIBRE</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>E/S BOLÍVAR</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>WWHP+649, Pueblo Libre 15084</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>AYR-771</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>MAGDALENA DEL MAR</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>E/S FLORA TRISTAN</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Av Javier Prado Oeste 2504, Magdalena del Mar 15076</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BED-794</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>P132</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>SAN MARTÍN DE PORRES</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>E/S TOMÁS VALLE</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BED-794</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>P317</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>CERCADO DE LIMA</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>E/S TINGO MARIA</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Avenida Tingo Maria Chacra Rios Sur 1711, Cercado de Lima 15083</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>BED-794</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>P160</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PUEBLO LIBRE</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>E/S BOLÍVAR</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>WWHP+649, Pueblo Libre 15084</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>BED-794</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>P277</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>LA PERLA</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>E/S PERLA</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>La Paz 2370, La Perla 07016</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>AXY-949</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>P132</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>SAN MARTÍN DE PORRES</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>E/S TOMÁS VALLE</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>AXY-949</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>P191</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>CALLAO</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>E/S MARCO POLO</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Av. Marco Polo, Callao 07021</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>AXY-949</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>P160</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PUEBLO LIBRE</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>E/S BOLÍVAR</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>WWHP+649, Pueblo Libre 15084</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>AXY-949</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>P277</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>LA PERLA</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>E/S PERLA</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>La Paz 2370, La Perla 07016</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>AXY-949</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3</v>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>P102</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>LA VICTORIA</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>E/S 28 DE JULIO</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>AXY-949</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3</v>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>P157</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>SAN BORJA</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>E/S PRINCIPAL</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Jr. Ernesto Rutherford 103, Distrito de Lima 15036</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>D5D-868</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>P277</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>LA PERLA</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>E/S PERLA</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>La Paz 2370, La Perla 07016</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>D5D-868</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E29" t="n">
-        <v>6</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>P102</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>LA VICTORIA</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>E/S 28 DE JULIO</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>D5D-868</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E30" t="n">
-        <v>6</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>P152</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>SAN BORJA</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>E/S NAVAL</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Av. San Luis 2480, San Borja 15037</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>D5D-868</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E31" t="n">
-        <v>6</v>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>P269</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ÑAÑA</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>E/S ÑAÑA</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Carr. Central 912, Chaclacayo 15476</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>AYX-789</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>JWENVERT TRANSPORTES</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E32" t="n">
-        <v>8</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>P269</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ÑAÑA</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>E/S ÑAÑA</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Carr. Central 912, Chaclacayo 15476</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>AYX-789</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>JWENVERT TRANSPORTES</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E33" t="n">
-        <v>8</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>P157</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>SAN BORJA</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>E/S PRINCIPAL</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Jr. Ernesto Rutherford 103, Distrito de Lima 15036</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>AYX-789</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>JWENVERT TRANSPORTES</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E34" t="n">
-        <v>8</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>P180</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VILLA EL SALVADOR</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>E/S VILLA EL SALVADOR</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>R24P+P5X, Villa EL Salvador 15842</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>AYX-789</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>JWENVERT TRANSPORTES</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E35" t="n">
-        <v>8</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>P289</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>LINCE</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>E/S SALAVERRY 1</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Av. César Canevaro 1598, Lince 15073</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>BBF-813</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>P296</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>SAN LUIS</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>E/S SAN LUIS 1</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Av. Nicolás Ayllón 1340, San Luis 15019</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>BBF-813</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E37" t="n">
-        <v>7</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>P157</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>SAN BORJA</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>E/S PRINCIPAL</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Jr. Ernesto Rutherford 103, Distrito de Lima 15036</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>BBF-813</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E38" t="n">
-        <v>7</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>SANTIAGO DE SURCO</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>E/S TOMÁS MARSANO</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>BBF-813</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E39" t="n">
-        <v>7</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>P180</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VILLA EL SALVADOR</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>E/S VILLA EL SALVADOR</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>R24P+P5X, Villa EL Salvador 15842</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>F3Y-722</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E40" t="n">
-        <v>8</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>P325</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>SANTIAGO DE SURCO</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>E/S VALLE HERMOSO</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>V2RF+334, Santiago de Surco 15023</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>F3Y-722</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E41" t="n">
-        <v>8</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>P296</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>SAN LUIS</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>E/S SAN LUIS 1</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Av. Nicolás Ayllón 1340, San Luis 15019</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>F3Y-722</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E42" t="n">
-        <v>8</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>P289</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>LINCE</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>E/S SALAVERRY 1</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Av. César Canevaro 1598, Lince 15073</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ADY-911</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E43" t="n">
-        <v>6</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>P175</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>MAGDALENA DEL MAR</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>E/S SALAVERRY 2</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Jirón Salaverry 480, Magdalena del Mar 15086</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ADY-911</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E44" t="n">
-        <v>6</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>P289</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>LINCE</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>E/S SALAVERRY 1</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Av. César Canevaro 1598, Lince 15073</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ADY-911</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E45" t="n">
-        <v>6</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>P325</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>SANTIAGO DE SURCO</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>E/S VALLE HERMOSO</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>V2RF+334, Santiago de Surco 15023</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>C5V-914</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E46" t="n">
-        <v>6</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>P126</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ATE</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>E/S ATE 2</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Residencial Portales de Pariachi Mz S1 lote 36, Ate 15476</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>C5V-914</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E47" t="n">
-        <v>6</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>P175</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>MAGDALENA DEL MAR</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>E/S SALAVERRY 2</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Jirón Salaverry 480, Magdalena del Mar 15086</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>C5V-914</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E48" t="n">
-        <v>6</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>P255</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>CANTO GRANDE</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>E/S LURIGANCHO</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Av. Lurigancho 1175, San Juan de Lurigancho 15427</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>C5V-914</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E49" t="n">
-        <v>6</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>P325</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>SANTIAGO DE SURCO</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>E/S VALLE HERMOSO</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>V2RF+334, Santiago de Surco 15023</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>C5V-914</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E50" t="n">
-        <v>6</v>
-      </c>
-      <c r="F50" t="n">
-        <v>5</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>P275</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>LURIN</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>E/S PANSUR</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>AYR-9452</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>P175</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>MAGDALENA DEL MAR</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>E/S SALAVERRY 2</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Jirón Salaverry 480, Magdalena del Mar 15086</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>AYR-9452</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>P211</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>CERCADO DE LIMA</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>E/S DUEÑAS</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Av. Argentina 629, Cercado de Lima 15081</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>AYR-9452</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>3</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>P101</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VILLA EL SALVADOR</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>E/S MIGUEL ANGEL</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Av. Lima 2000, Villa María del Triunfo 15816</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>AYR-9452</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="n">
-        <v>4</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>P126</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ATE</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>E/S ATE 2</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Residencial Portales de Pariachi Mz S1 lote 36, Ate 15476</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>7600</v>
-      </c>
-      <c r="E55" t="n">
-        <v>8</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>P283</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>CALLAO</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>E/S QUILCA</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Av. Quilca 531, San Martín de Porres 15106</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>7600</v>
-      </c>
-      <c r="E56" t="n">
-        <v>8</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>P324</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>LA MOLINA</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>E/S UNIVERSIDAD</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Av. La Universidad 22, La Molina 15026</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>7600</v>
-      </c>
-      <c r="E57" t="n">
-        <v>8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>P175</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>MAGDALENA DEL MAR</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>E/S SALAVERRY 2</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Jirón Salaverry 480, Magdalena del Mar 15086</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>7600</v>
-      </c>
-      <c r="E58" t="n">
-        <v>8</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>P265</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>LA MOLINA</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>E/S MONTERRICO</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Av. la Molina 580, La Molina 15023</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>APM-857</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>7600</v>
-      </c>
-      <c r="E59" t="n">
-        <v>8</v>
-      </c>
-      <c r="F59" t="n">
-        <v>5</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>P101</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VILLA EL SALVADOR</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>E/S MIGUEL ANGEL</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Av. Lima 2000, Villa María del Triunfo 15816</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E60" t="n">
-        <v>8</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>P283</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>CALLAO</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>E/S QUILCA</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Av. Quilca 531, San Martín de Porres 15106</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E61" t="n">
-        <v>8</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>P255</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>CANTO GRANDE</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>E/S LURIGANCHO</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Av. Lurigancho 1175, San Juan de Lurigancho 15427</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E62" t="n">
-        <v>8</v>
-      </c>
-      <c r="F62" t="n">
-        <v>3</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>P371</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>LA VICTORIA</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>E/S LA VICTORIA</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Av. Isabel la Católica 77, La Victoria 15033</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E63" t="n">
-        <v>8</v>
-      </c>
-      <c r="F63" t="n">
-        <v>4</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>P270</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>MIRAFLORES</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>E/S ORRANTIA</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Av. del Ejército 965, Magdalena del Mar 15076</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E64" t="n">
-        <v>8</v>
-      </c>
-      <c r="F64" t="n">
-        <v>5</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>P181</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PUNTA HERMOSA</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>E/S PUNTA HERMOSA</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Carr. Panamericana Sur, 1S, Lima</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ANW-916</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E65" t="n">
-        <v>8</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>P270</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>MIRAFLORES</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>E/S ORRANTIA</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Av. del Ejército 965, Magdalena del Mar 15076</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ANW-916</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E66" t="n">
-        <v>8</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>P183</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>SURQUILLO</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>E/S ANGAMOS</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Av. Angamos 1401, Surquillo 15048</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ANW-916</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E67" t="n">
-        <v>8</v>
-      </c>
-      <c r="F67" t="n">
-        <v>3</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>P185</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>SANTIAGO DE SURCO</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>E/S JORGE CHÁVEZ</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>VX3Q+784, Santiago de Surco 15049</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ANW-916</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E68" t="n">
-        <v>8</v>
-      </c>
-      <c r="F68" t="n">
-        <v>4</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>P371</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>LA VICTORIA</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>E/S LA VICTORIA</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Av. Isabel la Católica 77, La Victoria 15033</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ANW-916</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E69" t="n">
-        <v>8</v>
-      </c>
-      <c r="F69" t="n">
-        <v>5</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>P324</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>LA MOLINA</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>E/S UNIVERSIDAD</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Av. La Universidad 22, La Molina 15026</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>BAC-761</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>P181</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PUNTA HERMOSA</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>E/S PUNTA HERMOSA</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Carr. Panamericana Sur, 1S, Lima</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>BAC-761</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E71" t="n">
-        <v>7</v>
-      </c>
-      <c r="F71" t="n">
-        <v>2</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>P185</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>SANTIAGO DE SURCO</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>E/S JORGE CHÁVEZ</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>VX3Q+784, Santiago de Surco 15049</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>BAC-761</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E72" t="n">
-        <v>7</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>P266</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>SANTIAGO DE SURCO</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>E/S MONTREAL</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Av. Caminos del Inca 2017, Santiago de Surco 15039</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>BAC-761</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E73" t="n">
-        <v>7</v>
-      </c>
-      <c r="F73" t="n">
-        <v>4</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>P270</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>MIRAFLORES</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>E/S ORRANTIA</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Av. del Ejército 965, Magdalena del Mar 15076</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>BAC-761</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E74" t="n">
-        <v>7</v>
-      </c>
-      <c r="F74" t="n">
-        <v>5</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>P183</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>SURQUILLO</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>E/S ANGAMOS</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Av. Angamos 1401, Surquillo 15048</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>AYR-9451</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E75" t="n">
-        <v>8</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>P185</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>SANTIAGO DE SURCO</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>E/S JORGE CHÁVEZ</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>VX3Q+784, Santiago de Surco 15049</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>AYR-9451</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E76" t="n">
-        <v>8</v>
-      </c>
-      <c r="F76" t="n">
-        <v>2</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>P266</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>SANTIAGO DE SURCO</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>E/S MONTREAL</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Av. Caminos del Inca 2017, Santiago de Surco 15039</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>AYR-9451</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E77" t="n">
-        <v>8</v>
-      </c>
-      <c r="F77" t="n">
-        <v>3</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>P167</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>MIRAFLORES</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>E/S MIRAFLORES</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>VXGG+H2W, Lima 15074</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>AYR-9451</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8</v>
-      </c>
-      <c r="F78" t="n">
-        <v>4</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>P327</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ZARATE</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>E/S ZARATE</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ANC-872</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>6500</v>
-      </c>
-      <c r="E79" t="n">
-        <v>4</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>P266</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>SANTIAGO DE SURCO</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>E/S MONTREAL</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Av. Caminos del Inca 2017, Santiago de Surco 15039</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ANC-872</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>6500</v>
-      </c>
-      <c r="E80" t="n">
-        <v>4</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>P218</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>CALLAO</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>E/S ESCOSA</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Av. Guardia Civil Sur 341, Chorrillos 15056</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ANC-872</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>6500</v>
-      </c>
-      <c r="E81" t="n">
-        <v>4</v>
-      </c>
-      <c r="F81" t="n">
-        <v>3</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>P167</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>MIRAFLORES</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>E/S MIRAFLORES</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>VXGG+H2W, Lima 15074</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ANC-872</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>6500</v>
-      </c>
-      <c r="E82" t="n">
-        <v>4</v>
-      </c>
-      <c r="F82" t="n">
-        <v>4</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>P327</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ZARATE</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>E/S ZARATE</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E83" t="n">
-        <v>7</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>P193</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>CHILCA</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>E/S CHILCA</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>1S, Chilca 15871</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E84" t="n">
-        <v>7</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>P246</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>SAN MIGUEL</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>E/S LA PAZ 1</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Av. La Paz 925, San Miguel 15087</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E85" t="n">
-        <v>7</v>
-      </c>
-      <c r="F85" t="n">
-        <v>3</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>P327</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ZARATE</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>E/S ZARATE</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>AHJ-851</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E86" t="n">
-        <v>6</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>P193</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>CHILCA</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>E/S CHILCA</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>1S, Chilca 15871</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>AHJ-851</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E87" t="n">
-        <v>6</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>P316</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>CHORRILLOS</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>E/S TAVIRSA</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Av. Prol. Huaylas 600, Lima 15067</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>AHJ-851</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E88" t="n">
-        <v>6</v>
-      </c>
-      <c r="F88" t="n">
-        <v>3</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>P246</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>SAN MIGUEL</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>E/S LA PAZ 1</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Av. La Paz 925, San Miguel 15087</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>F2F-729</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E89" t="n">
-        <v>7</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>P316</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>CHORRILLOS</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>E/S TAVIRSA</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Av. Prol. Huaylas 600, Lima 15067</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>F2F-729</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E90" t="n">
-        <v>7</v>
-      </c>
-      <c r="F90" t="n">
-        <v>2</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>P246</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>SAN MIGUEL</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>E/S LA PAZ 1</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Av. La Paz 925, San Miguel 15087</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>F2F-729</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E91" t="n">
-        <v>7</v>
-      </c>
-      <c r="F91" t="n">
-        <v>3</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>P353</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>SAN ISIDRO</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>E/S MARBELLA</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Av. Augusto Pérez Araníbar 2199, San Isidro 15076</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>F2F-729</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>TRANSLYM</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E92" t="n">
-        <v>7</v>
-      </c>
-      <c r="F92" t="n">
-        <v>4</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>P110</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PUENTE PIEDRA</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>E/S NEOX</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Leoncio Prado 888, Puente Piedra 15122</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E93" t="n">
-        <v>6</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>P353</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>SAN ISIDRO</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>E/S MARBELLA</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Av. Augusto Pérez Araníbar 2199, San Isidro 15076</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E94" t="n">
-        <v>6</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>P110</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PUENTE PIEDRA</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>E/S NEOX</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Leoncio Prado 888, Puente Piedra 15122</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E95" t="n">
-        <v>6</v>
-      </c>
-      <c r="F95" t="n">
-        <v>3</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>P260</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PUENTE PIEDRA</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>E/S MEJIA</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>5V8P+7HQ, Puente Piedra 07076</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>4500</v>
-      </c>
-      <c r="E96" t="n">
-        <v>7</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>P260</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PUENTE PIEDRA</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>E/S MEJIA</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>5V8P+7HQ, Puente Piedra 07076</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/datos_salida/Recorrido_Estaciones_Unidades.xlsx
+++ b/datos_salida/Recorrido_Estaciones_Unidades.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,22 +509,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>P180</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>E/S VILLA EL SALVADOR</t>
+          <t>E/S TOMÁS MARSANO</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>R24P+P5X, Villa EL Salvador 15842</t>
+          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -555,22 +555,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P216</t>
+          <t>P124</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CHORRILLOS</t>
+          <t>LINCE</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>E/S EL CHORRILLANO</t>
+          <t>E/S AREQUIPA 1</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
+          <t>Av. Arequipa 3325, San Isidro 15046</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -582,7 +582,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>AYR-771</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -594,29 +594,29 @@
         <v>9000</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>P180</t>
+          <t>P191</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>E/S VILLA EL SALVADOR</t>
+          <t>E/S MARCO POLO</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>R24P+P5X, Villa EL Salvador 15842</t>
+          <t>Av. Marco Polo, Callao 07021</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>AYR-771</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -640,29 +640,29 @@
         <v>9000</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>P216</t>
+          <t>P194</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CHORRILLOS</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>E/S EL CHORRILLANO</t>
+          <t>E/S CALLE DERECHA</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
+          <t>Av García Alonso 195, Huaral 15201</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>AYR-771</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -686,29 +686,29 @@
         <v>9000</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>P132</t>
+          <t>P294</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE PORRES</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>E/S TOMÁS VALLE</t>
+          <t>E/S SAN JOSÉ</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
+          <t>Av. Panamericana Nte. 928, Barranca 15169</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -735,26 +735,26 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P265</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>LA MOLINA</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>E/S MONTERRICO</t>
+          <t>E/S TOMÁS MARSANO</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Av. la Molina 580, La Molina 15023</t>
+          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -781,26 +781,26 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>P246</t>
+          <t>P124</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>LINCE</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>E/S LA PAZ 1</t>
+          <t>E/S AREQUIPA 1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Av. La Paz 925, San Miguel 15087</t>
+          <t>Av. Arequipa 3325, San Isidro 15046</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -812,41 +812,41 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>9000</v>
       </c>
       <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
         <v>3</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>P132</t>
+          <t>P285</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE PORRES</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>E/S TOMÁS VALLE</t>
+          <t>E/S REPÚBLICA</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
+          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -858,41 +858,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>9000</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P265</t>
+          <t>P167</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>LA MOLINA</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>E/S MONTERRICO</t>
+          <t>E/S MIRAFLORES</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Av. la Molina 580, La Molina 15023</t>
+          <t>VXGG+H2W, Lima 15074</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -904,26 +904,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>9000</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>P309</t>
+          <t>P159</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -933,12 +933,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>E/S SUDAMERICANO</t>
+          <t>E/S COLONIAL 1</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
+          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -950,41 +950,41 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>9000</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>P216</t>
+          <t>P199</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CHORRILLOS</t>
+          <t>SAN ISIDRO</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>E/S EL CHORRILLANO</t>
+          <t>E/S CASTAÑOS</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
+          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -996,41 +996,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>9000</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>P181</t>
+          <t>P297</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PUNTA HERMOSA</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>E/S PUNTA HERMOSA</t>
+          <t>E/S SAN LUIS 2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Carr. Panamericana Sur, 1S, Lima</t>
+          <t>Av. San Luis 2605, San Borja 15037</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1042,41 +1042,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>9000</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>P265</t>
+          <t>P215</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>LA MOLINA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>E/S MONTERRICO</t>
+          <t>E/S EL CARMELO</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Av. la Molina 580, La Molina 15023</t>
+          <t>Av. la Marina 3112, San Miguel 15088</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1088,41 +1088,41 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>9000</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>P246</t>
+          <t>P283</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>E/S LA PAZ 1</t>
+          <t>E/S QUILCA</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Av. La Paz 925, San Miguel 15087</t>
+          <t>Av. Quilca 531, San Martín de Porres 15106</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1134,41 +1134,41 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>9000</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>P184</t>
+          <t>P124</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE PORRES</t>
+          <t>LINCE</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>E/S GAMARRA</t>
+          <t>E/S AREQUIPA 1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Av. Universitaria 2015, San Martín de Porres 15108</t>
+          <t>Av. Arequipa 3325, San Isidro 15046</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1180,22 +1180,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1226,41 +1226,41 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>P181</t>
+          <t>P194</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PUNTA HERMOSA</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>E/S PUNTA HERMOSA</t>
+          <t>E/S CALLE DERECHA</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Carr. Panamericana Sur, 1S, Lima</t>
+          <t>Av García Alonso 195, Huaral 15201</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1272,41 +1272,41 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>P181</t>
+          <t>P223</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PUNTA HERMOSA</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>E/S PUNTA HERMOSA</t>
+          <t>E/S FELVERANA</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Carr. Panamericana Sur, 1S, Lima</t>
+          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1318,41 +1318,41 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>P309</t>
+          <t>P184</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>E/S SUDAMERICANO</t>
+          <t>E/S GAMARRA</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
+          <t>Av. Universitaria 2015, San Martín de Porres 15108</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1364,41 +1364,41 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>P215</t>
+          <t>P191</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>E/S EL CARMELO</t>
+          <t>E/S MARCO POLO</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Av. la Marina 3112, San Miguel 15088</t>
+          <t>Av. Marco Polo, Callao 07021</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1410,41 +1410,41 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>P275</t>
+          <t>P194</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>E/S PANSUR</t>
+          <t>E/S CALLE DERECHA</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
+          <t>Av García Alonso 195, Huaral 15201</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>APM-857</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1465,32 +1465,32 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="D23" t="n">
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>P309</t>
+          <t>P223</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>E/S SUDAMERICANO</t>
+          <t>E/S FELVERANA</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
+          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1502,7 +1502,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>APM-857</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1511,32 +1511,32 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="D24" t="n">
         <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>P215</t>
+          <t>P283</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>E/S EL CARMELO</t>
+          <t>E/S QUILCA</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Av. la Marina 3112, San Miguel 15088</t>
+          <t>Av. Quilca 531, San Martín de Porres 15106</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1548,7 +1548,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>APM-857</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1557,32 +1557,32 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="D25" t="n">
         <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>P199</t>
+          <t>P194</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>SAN ISIDRO</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>E/S CASTAÑOS</t>
+          <t>E/S CALLE DERECHA</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
+          <t>Av García Alonso 195, Huaral 15201</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1594,12 +1594,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1609,26 +1609,26 @@
         <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>P113</t>
+          <t>P283</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>E/S HUARALINO</t>
+          <t>E/S QUILCA</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Chancay 351, Huaral 15202</t>
+          <t>Av. Quilca 531, San Martín de Porres 15106</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1640,41 +1640,41 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>P275</t>
+          <t>P285</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>E/S PANSUR</t>
+          <t>E/S REPÚBLICA</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
+          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1686,41 +1686,41 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>P199</t>
+          <t>P223</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SAN ISIDRO</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>E/S CASTAÑOS</t>
+          <t>E/S FELVERANA</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
+          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1732,41 +1732,41 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>P113</t>
+          <t>P154</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>E/S HUARALINO</t>
+          <t>E/S CHANCAY 2</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Chancay 351, Huaral 15202</t>
+          <t>Av. Panamericana Nte. 83.9, 15130</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1778,41 +1778,41 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>P275</t>
+          <t>P159</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>E/S PANSUR</t>
+          <t>E/S COLONIAL 1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
+          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1824,41 +1824,41 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>P275</t>
+          <t>P283</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>E/S PANSUR</t>
+          <t>E/S QUILCA</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
+          <t>Av. Quilca 531, San Martín de Porres 15106</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1870,41 +1870,41 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>P275</t>
+          <t>P285</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>E/S PANSUR</t>
+          <t>E/S REPÚBLICA</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
+          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1916,41 +1916,41 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>ANC-872</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>P152</t>
+          <t>P167</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>E/S NAVAL</t>
+          <t>E/S MIRAFLORES</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Av. San Luis 2480, San Borja 15037</t>
+          <t>VXGG+H2W, Lima 15074</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1962,41 +1962,41 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>ANC-872</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>P152</t>
+          <t>P285</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>E/S NAVAL</t>
+          <t>E/S REPÚBLICA</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Av. San Luis 2480, San Borja 15037</t>
+          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,41 +2008,41 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>ANC-872</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>P285</t>
+          <t>P154</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>E/S REPÚBLICA</t>
+          <t>E/S CHANCAY 2</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
+          <t>Av. Panamericana Nte. 83.9, 15130</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2054,41 +2054,41 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>P154</t>
+          <t>P167</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>E/S CHANCAY 2</t>
+          <t>E/S MIRAFLORES</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 83.9, 15130</t>
+          <t>VXGG+H2W, Lima 15074</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2100,41 +2100,41 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>P285</t>
+          <t>P159</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>E/S REPÚBLICA</t>
+          <t>E/S COLONIAL 1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
+          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2146,41 +2146,41 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>P199</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>SAN ISIDRO</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>E/S TOMÁS MARSANO</t>
+          <t>E/S CASTAÑOS</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
+          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2192,41 +2192,41 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>P285</t>
+          <t>P297</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>E/S REPÚBLICA</t>
+          <t>E/S SAN LUIS 2</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
+          <t>Av. San Luis 2605, San Borja 15037</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2238,22 +2238,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2284,41 +2284,41 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>P154</t>
+          <t>P215</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>E/S CHANCAY 2</t>
+          <t>E/S EL CARMELO</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 83.9, 15130</t>
+          <t>Av. la Marina 3112, San Miguel 15088</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2330,41 +2330,41 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
         <v>2</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>P159</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>E/S TOMÁS MARSANO</t>
+          <t>E/S COLONIAL 1</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
+          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2376,41 +2376,41 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>P199</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>SAN ISIDRO</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>E/S TOMÁS MARSANO</t>
+          <t>E/S CASTAÑOS</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
+          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2422,41 +2422,41 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>P102</t>
+          <t>P297</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>E/S 28 DE JULIO</t>
+          <t>E/S SAN LUIS 2</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
+          <t>Av. San Luis 2605, San Borja 15037</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2468,41 +2468,41 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>P327</t>
+          <t>P297</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ZARATE</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>E/S ZARATE</t>
+          <t>E/S SAN LUIS 2</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
+          <t>Av. San Luis 2605, San Borja 15037</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2514,41 +2514,41 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AFZ-941</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>P102</t>
+          <t>P215</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>E/S 28 DE JULIO</t>
+          <t>E/S EL CARMELO</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
+          <t>Av. la Marina 3112, San Miguel 15088</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2560,12 +2560,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AFZ-941</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2575,26 +2575,26 @@
         <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>P327</t>
+          <t>P171</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ZARATE</t>
+          <t>CANTO GRANDE</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>E/S ZARATE</t>
+          <t>E/S WIESSE</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
+          <t>Av. El Bosque, San Juan de Lurigancho 15419</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2606,41 +2606,41 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AUG-888</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>P102</t>
+          <t>P297</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>E/S 28 DE JULIO</t>
+          <t>E/S SAN LUIS 2</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
+          <t>Av. San Luis 2605, San Borja 15037</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2652,41 +2652,41 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AUG-888</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>P327</t>
+          <t>P215</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ZARATE</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>E/S ZARATE</t>
+          <t>E/S EL CARMELO</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
+          <t>Av. la Marina 3112, San Miguel 15088</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2698,7 +2698,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AVL-851</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D50" t="n">
         <v>4</v>
@@ -2717,22 +2717,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>P327</t>
+          <t>P215</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ZARATE</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>E/S ZARATE</t>
+          <t>E/S EL CARMELO</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
+          <t>Av. la Marina 3112, San Miguel 15088</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2744,7 +2744,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B6J-896</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2753,35 +2753,311 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D51" t="n">
         <v>4</v>
       </c>
       <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>P171</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>CANTO GRANDE</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>E/S WIESSE</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Av. El Bosque, San Juan de Lurigancho 15419</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>AUG-895</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>P265</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>LA MOLINA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>E/S MONTERRICO</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Av. la Molina 580, La Molina 15023</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>AHP-831</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" t="n">
         <v>1</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>P327</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>ZARATE</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>E/S ZARATE</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>P171</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>CANTO GRANDE</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>E/S WIESSE</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Av. El Bosque, San Juan de Lurigancho 15419</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>AHP-831</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>P265</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>LA MOLINA</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>E/S MONTERRICO</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Av. la Molina 580, La Molina 15023</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>V5I-821</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>P265</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>LA MOLINA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>E/S MONTERRICO</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Av. la Molina 580, La Molina 15023</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>D1J-885</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>P265</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>LA MOLINA</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>E/S MONTERRICO</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Av. la Molina 580, La Molina 15023</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>D1J-885</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>P255</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>CANTO GRANDE</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>E/S LURIGANCHO</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Av. Lurigancho 1175, San Juan de Lurigancho 15427</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>COESTI</t>
         </is>
@@ -2798,7 +3074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2880,22 +3156,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>P297</t>
+          <t>P292</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>E/S SAN LUIS 2</t>
+          <t>E/S SAN CARLOS</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Av. San Luis 2605, San Borja 15037</t>
+          <t>P4H3+35F, Lurín 15823</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2907,7 +3183,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AYR-771</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2919,29 +3195,29 @@
         <v>9000</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P283</t>
+          <t>P292</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>E/S QUILCA</t>
+          <t>E/S SAN CARLOS</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Av. Quilca 531, San Martín de Porres 15106</t>
+          <t>P4H3+35F, Lurín 15823</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2953,41 +3229,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9000</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>P269</t>
+          <t>P236</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ÑAÑA</t>
+          <t>JESUS MARIA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>E/S ÑAÑA</t>
+          <t>E/S HUIRACOCHA</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Carr. Central 912, Chaclacayo 15476</t>
+          <t>Av. Gregorio Escobedo 410, Jesús María 15072</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2999,41 +3275,41 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>9000</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>P171</t>
+          <t>P180</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CANTO GRANDE</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>E/S WIESSE</t>
+          <t>E/S VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Av. El Bosque, San Juan de Lurigancho 15419</t>
+          <t>R24P+P5X, Villa EL Salvador 15842</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -3045,41 +3321,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>9000</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>P297</t>
+          <t>P292</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>E/S SAN LUIS 2</t>
+          <t>E/S SAN CARLOS</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Av. San Luis 2605, San Borja 15037</t>
+          <t>P4H3+35F, Lurín 15823</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3091,41 +3367,41 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>9000</v>
       </c>
       <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P283</t>
+          <t>P236</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>JESUS MARIA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>E/S QUILCA</t>
+          <t>E/S HUIRACOCHA</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Av. Quilca 531, San Martín de Porres 15106</t>
+          <t>Av. Gregorio Escobedo 410, Jesús María 15072</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3137,41 +3413,41 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>9000</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>P124</t>
+          <t>P180</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>LINCE</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>E/S AREQUIPA 1</t>
+          <t>E/S VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Av. Arequipa 3325, San Isidro 15046</t>
+          <t>R24P+P5X, Villa EL Salvador 15842</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3183,22 +3459,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>APM-857</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
         <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -3229,41 +3505,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>APM-857</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P133</t>
+          <t>P180</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>E/S ARMENDARIZ</t>
+          <t>E/S VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Armendariz 575, Miraflores 15074</t>
+          <t>R24P+P5X, Villa EL Salvador 15842</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3275,41 +3551,41 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>APM-857</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>P244</t>
+          <t>P122</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>E/S LA MARINA</t>
+          <t>E/S ALEGRÍA</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Av. la Marina 2155, San Miguel 15087</t>
+          <t>Av. Alfredo Benavides 2116, Miraflores 15048</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -3321,41 +3597,41 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>APM-857</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>P283</t>
+          <t>P113</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>E/S QUILCA</t>
+          <t>E/S HUARALINO</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Av. Quilca 531, San Martín de Porres 15106</t>
+          <t>Chancay 351, Huaral 15202</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3367,41 +3643,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>P223</t>
+          <t>P113</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>E/S FELVERANA</t>
+          <t>E/S HUARALINO</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
+          <t>Chancay 351, Huaral 15202</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3413,41 +3689,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>P124</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>LINCE</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>E/S AREQUIPA 1</t>
+          <t>E/S MIGUEL ANGEL</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Av. Arequipa 3325, San Isidro 15046</t>
+          <t>Av. Lima 2000, Villa María del Triunfo 15816</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -3459,41 +3735,41 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
         <v>3</v>
       </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>P133</t>
+          <t>P246</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>E/S ARMENDARIZ</t>
+          <t>E/S LA PAZ 1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Armendariz 575, Miraflores 15074</t>
+          <t>Av. La Paz 925, San Miguel 15087</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3505,41 +3781,41 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>P297</t>
+          <t>P193</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>E/S SAN LUIS 2</t>
+          <t>E/S CHILCA</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Av. San Luis 2605, San Borja 15037</t>
+          <t>1S, Chilca 15871</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3551,41 +3827,41 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>P223</t>
+          <t>P193</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>E/S FELVERANA</t>
+          <t>E/S CHILCA</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
+          <t>1S, Chilca 15871</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3597,41 +3873,41 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>P124</t>
+          <t>P296</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>LINCE</t>
+          <t>SAN LUIS</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>E/S AREQUIPA 1</t>
+          <t>E/S SAN LUIS 1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Av. Arequipa 3325, San Isidro 15046</t>
+          <t>Av. Nicolás Ayllón 1340, San Luis 15019</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3643,41 +3919,41 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>P101</t>
+          <t>P327</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>ZARATE</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>E/S MIGUEL ANGEL</t>
+          <t>E/S ZARATE</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Av. Lima 2000, Villa María del Triunfo 15816</t>
+          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3689,41 +3965,41 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>ANC-872</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7600</v>
+        <v>6500</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>P133</t>
+          <t>P296</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>SAN LUIS</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>E/S ARMENDARIZ</t>
+          <t>E/S SAN LUIS 1</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Armendariz 575, Miraflores 15074</t>
+          <t>Av. Nicolás Ayllón 1340, San Luis 15019</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3735,41 +4011,41 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>ANC-872</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7600</v>
+        <v>6500</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>P101</t>
+          <t>P327</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>ZARATE</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>E/S MIGUEL ANGEL</t>
+          <t>E/S ZARATE</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Av. Lima 2000, Villa María del Triunfo 15816</t>
+          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3781,41 +4057,41 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7600</v>
+        <v>6000</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>P296</t>
+          <t>P181</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SAN LUIS</t>
+          <t>PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>E/S SAN LUIS 1</t>
+          <t>E/S PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón 1340, San Luis 15019</t>
+          <t>Carr. Panamericana Sur, 1S, Lima</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3827,41 +4103,41 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7600</v>
+        <v>6000</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>P201</t>
+          <t>P327</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>ZARATE</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>E/S CHANCAY 1</t>
+          <t>E/S ZARATE</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 90.5, 15130</t>
+          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3873,41 +4149,41 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>P133</t>
+          <t>P390</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>OQUENDO</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>E/S ARMENDARIZ</t>
+          <t>E/S GAMBETA</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Armendariz 575, Miraflores 15074</t>
+          <t>Av. Nestor Gambetta 76, Callao 07046</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3919,41 +4195,41 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>P255</t>
+          <t>P390</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CANTO GRANDE</t>
+          <t>OQUENDO</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>E/S LURIGANCHO</t>
+          <t>E/S GAMBETA</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Av. Lurigancho 1175, San Juan de Lurigancho 15427</t>
+          <t>Av. Nestor Gambetta 76, Callao 07046</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3965,41 +4241,41 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>P135</t>
+          <t>P390</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>OQUENDO</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>E/S ATE 1</t>
+          <t>E/S GAMBETA</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Tomas Alva Edison 160, Lima 15022</t>
+          <t>Av. Nestor Gambetta 76, Callao 07046</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -4011,41 +4287,41 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>P244</t>
+          <t>P181</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>E/S LA MARINA</t>
+          <t>E/S PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Av. la Marina 2155, San Miguel 15087</t>
+          <t>Carr. Panamericana Sur, 1S, Lima</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -4057,7 +4333,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4066,32 +4342,32 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>P165</t>
+          <t>P181</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>E/S ESCARDÓ</t>
+          <t>E/S PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Av. Rafael Escardó 250, San Miguel 15087</t>
+          <t>Carr. Panamericana Sur, 1S, Lima</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -4103,7 +4379,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4112,32 +4388,32 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>P201</t>
+          <t>P132</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>E/S CHANCAY 1</t>
+          <t>E/S TOMÁS VALLE</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 90.5, 15130</t>
+          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -4149,41 +4425,41 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>P191</t>
+          <t>P201</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>E/S MARCO POLO</t>
+          <t>E/S CHANCAY 1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Av. Marco Polo, Callao 07021</t>
+          <t>Av. Panamericana Nte. 90.5, 15130</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4195,41 +4471,41 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>P135</t>
+          <t>P132</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>E/S ATE 1</t>
+          <t>E/S TOMÁS VALLE</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Tomas Alva Edison 160, Lima 15022</t>
+          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4241,41 +4517,41 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>P244</t>
+          <t>P181</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>E/S LA MARINA</t>
+          <t>E/S PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Av. la Marina 2155, San Miguel 15087</t>
+          <t>Carr. Panamericana Sur, 1S, Lima</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4287,41 +4563,41 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>P122</t>
+          <t>P201</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>E/S ALEGRÍA</t>
+          <t>E/S CHANCAY 1</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Av. Alfredo Benavides 2116, Miraflores 15048</t>
+          <t>Av. Panamericana Nte. 90.5, 15130</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4333,41 +4609,41 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>P269</t>
+          <t>P132</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ÑAÑA</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>E/S ÑAÑA</t>
+          <t>E/S TOMÁS VALLE</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Carr. Central 912, Chaclacayo 15476</t>
+          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4379,7 +4655,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4388,32 +4664,32 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>P269</t>
+          <t>P102</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ÑAÑA</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>E/S ÑAÑA</t>
+          <t>E/S 28 DE JULIO</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Carr. Central 912, Chaclacayo 15476</t>
+          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4425,41 +4701,41 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>P191</t>
+          <t>P132</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>E/S MARCO POLO</t>
+          <t>E/S TOMÁS VALLE</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Av. Marco Polo, Callao 07021</t>
+          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4471,41 +4747,41 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>P171</t>
+          <t>P102</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CANTO GRANDE</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>E/S WIESSE</t>
+          <t>E/S 28 DE JULIO</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Av. El Bosque, San Juan de Lurigancho 15419</t>
+          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4517,41 +4793,41 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>P165</t>
+          <t>P152</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>E/S ESCARDÓ</t>
+          <t>E/S NAVAL</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Av. Rafael Escardó 250, San Miguel 15087</t>
+          <t>Av. San Luis 2480, San Borja 15037</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4563,41 +4839,41 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>P390</t>
+          <t>P152</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>OQUENDO</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>E/S GAMBETA</t>
+          <t>E/S NAVAL</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Av. Nestor Gambetta 76, Callao 07046</t>
+          <t>Av. San Luis 2480, San Borja 15037</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -4609,41 +4885,41 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>P191</t>
+          <t>P309</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>E/S MARCO POLO</t>
+          <t>E/S SUDAMERICANO</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Av. Marco Polo, Callao 07021</t>
+          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -4655,41 +4931,41 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>AFZ-941</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>P165</t>
+          <t>P152</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>E/S ESCARDÓ</t>
+          <t>E/S NAVAL</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Av. Rafael Escardó 250, San Miguel 15087</t>
+          <t>Av. San Luis 2480, San Borja 15037</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -4701,41 +4977,41 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>AFZ-941</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
         <v>2</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>P390</t>
+          <t>P309</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>OQUENDO</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>E/S GAMBETA</t>
+          <t>E/S SUDAMERICANO</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Av. Nestor Gambetta 76, Callao 07046</t>
+          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -4747,41 +5023,41 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>AUG-888</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>P390</t>
+          <t>P165</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>OQUENDO</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>E/S GAMBETA</t>
+          <t>E/S ESCARDÓ</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Av. Nestor Gambetta 76, Callao 07046</t>
+          <t>Av. Rafael Escardó 250, San Miguel 15087</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4793,41 +5069,41 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>AUG-888</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>P193</t>
+          <t>P309</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>E/S CHILCA</t>
+          <t>E/S SUDAMERICANO</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1S, Chilca 15871</t>
+          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -4839,41 +5115,41 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>AUG-888</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>P193</t>
+          <t>P135</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>E/S CHILCA</t>
+          <t>E/S ATE 1</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1S, Chilca 15871</t>
+          <t>Tomas Alva Edison 160, Lima 15022</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4885,41 +5161,41 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>AVL-851</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>P194</t>
+          <t>P135</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>E/S CALLE DERECHA</t>
+          <t>E/S ATE 1</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Av García Alonso 195, Huaral 15201</t>
+          <t>Tomas Alva Edison 160, Lima 15022</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4931,7 +5207,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>AVL-851</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4940,311 +5216,35 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D47" t="n">
         <v>4</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>P193</t>
+          <t>P165</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>E/S CHILCA</t>
+          <t>E/S ESCARDÓ</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1S, Chilca 15871</t>
+          <t>Av. Rafael Escardó 250, San Miguel 15087</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>AUG-895</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>P167</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>MIRAFLORES</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>E/S MIRAFLORES</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>VXGG+H2W, Lima 15074</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>AHP-831</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>P125</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>RÍMAC</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>E/S LOLESA</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Av. Francisco Pizarro Cdra. 9, Rímac 15094</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>V5I-821</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D50" t="n">
-        <v>5</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>P167</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>MIRAFLORES</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>E/S MIRAFLORES</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>VXGG+H2W, Lima 15074</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>V5I-821</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D51" t="n">
-        <v>5</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>P194</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>HUARAL</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>E/S CALLE DERECHA</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Av García Alonso 195, Huaral 15201</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>D1J-885</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D52" t="n">
-        <v>5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>P194</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>HUARAL</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>E/S CALLE DERECHA</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Av García Alonso 195, Huaral 15201</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>AFZ-941</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D53" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>P194</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>HUARAL</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>E/S CALLE DERECHA</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Av García Alonso 195, Huaral 15201</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
         <is>
           <t>COESTI</t>
         </is>
@@ -5261,7 +5261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5343,22 +5343,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>P292</t>
+          <t>P133</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>E/S SAN CARLOS</t>
+          <t>E/S ARMENDARIZ</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>P4H3+35F, Lurín 15823</t>
+          <t>Armendariz 575, Miraflores 15074</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -5370,7 +5370,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>AYR-771</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5382,29 +5382,29 @@
         <v>9000</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P292</t>
+          <t>P216</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>CHORRILLOS</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>E/S SAN CARLOS</t>
+          <t>E/S EL CHORRILLANO</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>P4H3+35F, Lurín 15823</t>
+          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -5416,12 +5416,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>AYR-771</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -5431,11 +5431,11 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>P292</t>
+          <t>P275</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -5445,12 +5445,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>E/S SAN CARLOS</t>
+          <t>E/S PANSUR</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>P4H3+35F, Lurín 15823</t>
+          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -5462,41 +5462,41 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>9000</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>P236</t>
+          <t>P275</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>JESUS MARIA</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>E/S HUIRACOCHA</t>
+          <t>E/S PANSUR</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Av. Gregorio Escobedo 410, Jesús María 15072</t>
+          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -5508,41 +5508,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>9000</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>P159</t>
+          <t>P133</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>E/S COLONIAL 1</t>
+          <t>E/S ARMENDARIZ</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
+          <t>Armendariz 575, Miraflores 15074</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -5554,41 +5554,41 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>9000</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P294</t>
+          <t>P216</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>CHORRILLOS</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>E/S SAN JOSÉ</t>
+          <t>E/S EL CHORRILLANO</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 928, Barranca 15169</t>
+          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -5600,41 +5600,41 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>9000</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>P236</t>
+          <t>P217</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>JESUS MARIA</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>E/S HUIRACOCHA</t>
+          <t>E/S EL ROSARIO</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Av. Gregorio Escobedo 410, Jesús María 15072</t>
+          <t>Av. Angamos 1795, Surquillo 15048</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -5646,41 +5646,41 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>9000</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>P159</t>
+          <t>P275</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>E/S COLONIAL 1</t>
+          <t>E/S PANSUR</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
+          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -5692,41 +5692,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>9000</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P217</t>
+          <t>P133</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>E/S EL ROSARIO</t>
+          <t>E/S ARMENDARIZ</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Av. Angamos 1795, Surquillo 15048</t>
+          <t>Armendariz 575, Miraflores 15074</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -5738,41 +5738,41 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>P294</t>
+          <t>P216</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>CHORRILLOS</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>E/S SAN JOSÉ</t>
+          <t>E/S EL CHORRILLANO</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 928, Barranca 15169</t>
+          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -5784,41 +5784,41 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>P159</t>
+          <t>P217</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>E/S COLONIAL 1</t>
+          <t>E/S EL ROSARIO</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
+          <t>Av. Angamos 1795, Surquillo 15048</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -5830,44 +5830,412 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AXY-949</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>P244</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>SAN MIGUEL</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>E/S LA MARINA</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Av. la Marina 2155, San Miguel 15087</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>D5D-868</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>P269</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ÑAÑA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>E/S ÑAÑA</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Carr. Central 912, Chaclacayo 15476</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>D5D-868</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>P216</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>CHORRILLOS</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>E/S EL CHORRILLANO</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>D5D-868</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>P125</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>RÍMAC</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>E/S LOLESA</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Av. Francisco Pizarro Cdra. 9, Rímac 15094</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>D5D-868</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>P217</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>SANTIAGO DE SURCO</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>E/S EL ROSARIO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Av. Angamos 1795, Surquillo 15048</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>D5D-868</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>P244</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>SAN MIGUEL</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>E/S LA MARINA</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Av. la Marina 2155, San Miguel 15087</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>APM-857</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>7600</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>8</v>
       </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>P217</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>SANTIAGO DE SURCO</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>E/S EL ROSARIO</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Av. Angamos 1795, Surquillo 15048</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>P244</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>SAN MIGUEL</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>E/S LA MARINA</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Av. la Marina 2155, San Miguel 15087</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>APM-857</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>P269</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ÑAÑA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>E/S ÑAÑA</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Carr. Central 912, Chaclacayo 15476</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>P269</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ÑAÑA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>E/S ÑAÑA</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Carr. Central 912, Chaclacayo 15476</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>COESTI</t>
         </is>

--- a/datos_salida/Recorrido_Estaciones_Unidades.xlsx
+++ b/datos_salida/Recorrido_Estaciones_Unidades.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Vuelta 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Vuelta 2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Vuelta 3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Vuelta 4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -509,27 +510,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>1002607</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>E/S TOMÁS MARSANO</t>
+          <t>AUTO SERVICIO LA PERLA S.A.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
+          <t>Av. República de Venezuela, Bellavista 07011</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
@@ -555,22 +556,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P124</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>LINCE</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>E/S AREQUIPA 1</t>
+          <t>E/S TOMÁS MARSANO</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Av. Arequipa 3325, San Isidro 15046</t>
+          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -601,22 +602,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>P191</t>
+          <t>P184</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>E/S MARCO POLO</t>
+          <t>E/S GAMARRA</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Av. Marco Polo, Callao 07021</t>
+          <t>Av. Universitaria 2015, San Martín de Porres 15108</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -647,27 +648,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>P194</t>
+          <t>1002685</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>LA MOLINA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>E/S CALLE DERECHA</t>
+          <t>ORGANIZACION FUTURO S.A.C.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Av García Alonso 195, Huaral 15201</t>
+          <t>Av. Javier Prado Este 6651, La Molina 15012</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
@@ -693,22 +694,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>P294</t>
+          <t>P191</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>E/S SAN JOSÉ</t>
+          <t>E/S MARCO POLO</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 928, Barranca 15169</t>
+          <t>Av. Marco Polo, Callao 07021</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -720,7 +721,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>AYR-771</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -732,29 +733,29 @@
         <v>9000</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>P294</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>E/S TOMÁS MARSANO</t>
+          <t>E/S SAN JOSÉ</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
+          <t>Av. Panamericana Nte. 928, Barranca 15169</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -781,31 +782,31 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>P124</t>
+          <t>1002685</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>LINCE</t>
+          <t>LA MOLINA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>E/S AREQUIPA 1</t>
+          <t>ORGANIZACION FUTURO S.A.C.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Av. Arequipa 3325, San Isidro 15046</t>
+          <t>Av. Javier Prado Este 6651, La Molina 15012</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
@@ -827,31 +828,31 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>P285</t>
+          <t>1007571</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>E/S REPÚBLICA</t>
+          <t>SERVICIOS Y REPRESENTACIONES TACNA</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
+          <t>Av Bausate y Meza 1050, La Victoria 15018</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
@@ -873,31 +874,31 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P167</t>
+          <t>1002607</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>E/S MIRAFLORES</t>
+          <t>AUTO SERVICIO LA PERLA S.A.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>VXGG+H2W, Lima 15074</t>
+          <t>Av. República de Venezuela, Bellavista 07011</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
@@ -919,26 +920,26 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>P159</t>
+          <t>P184</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>E/S COLONIAL 1</t>
+          <t>E/S GAMARRA</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
+          <t>Av. Universitaria 2015, San Martín de Porres 15108</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -950,41 +951,41 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>9000</v>
       </c>
       <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>P199</t>
+          <t>P285</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>SAN ISIDRO</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>E/S CASTAÑOS</t>
+          <t>E/S REPÚBLICA</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
+          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -996,41 +997,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>9000</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>P297</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>E/S SAN LUIS 2</t>
+          <t>E/S TOMÁS MARSANO</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Av. San Luis 2605, San Borja 15037</t>
+          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1042,41 +1043,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>9000</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>P215</t>
+          <t>P124</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>LINCE</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>E/S EL CARMELO</t>
+          <t>E/S AREQUIPA 1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Av. la Marina 3112, San Miguel 15088</t>
+          <t>Av. Arequipa 3325, San Isidro 15046</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1103,11 +1104,11 @@
         <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>P283</t>
+          <t>P191</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1117,12 +1118,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>E/S QUILCA</t>
+          <t>E/S MARCO POLO</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Av. Quilca 531, San Martín de Porres 15106</t>
+          <t>Av. Marco Polo, Callao 07021</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1149,26 +1150,26 @@
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>P124</t>
+          <t>P194</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>LINCE</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>E/S AREQUIPA 1</t>
+          <t>E/S CALLE DERECHA</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Av. Arequipa 3325, San Isidro 15046</t>
+          <t>Av García Alonso 195, Huaral 15201</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1180,41 +1181,41 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>9000</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>P184</t>
+          <t>P191</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE PORRES</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>E/S GAMARRA</t>
+          <t>E/S MARCO POLO</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Av. Universitaria 2015, San Martín de Porres 15108</t>
+          <t>Av. Marco Polo, Callao 07021</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1226,46 +1227,46 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>9000</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>P194</t>
+          <t>1007571</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>E/S CALLE DERECHA</t>
+          <t>SERVICIOS Y REPRESENTACIONES TACNA</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Av García Alonso 195, Huaral 15201</t>
+          <t>Av Bausate y Meza 1050, La Victoria 15018</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
@@ -1287,26 +1288,26 @@
         <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>P223</t>
+          <t>P184</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>E/S FELVERANA</t>
+          <t>E/S GAMARRA</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
+          <t>Av. Universitaria 2015, San Martín de Porres 15108</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1333,118 +1334,118 @@
         <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>P184</t>
+          <t>1002685</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE PORRES</t>
+          <t>LA MOLINA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>E/S GAMARRA</t>
+          <t>ORGANIZACION FUTURO S.A.C.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Av. Universitaria 2015, San Martín de Porres 15108</t>
+          <t>Av. Javier Prado Este 6651, La Molina 15012</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>APM-857</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>P191</t>
+          <t>1012160</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>E/S MARCO POLO</t>
+          <t>EMP. DE TRANSPORTES TURISTICO OLANO</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Av. Marco Polo, Callao 07021</t>
+          <t>Jirón Manuel Cisneros 492, La Victoria 15033</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Industria</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>APM-857</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>P194</t>
+          <t>P283</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>E/S CALLE DERECHA</t>
+          <t>E/S QUILCA</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Av García Alonso 195, Huaral 15201</t>
+          <t>Av. Quilca 531, San Martín de Porres 15106</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1471,26 +1472,26 @@
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>P223</t>
+          <t>P194</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>E/S FELVERANA</t>
+          <t>E/S CALLE DERECHA</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
+          <t>Av García Alonso 195, Huaral 15201</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1502,53 +1503,53 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="D24" t="n">
         <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>P283</t>
+          <t>1012160</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>E/S QUILCA</t>
+          <t>EMP. DE TRANSPORTES TURISTICO OLANO</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Av. Quilca 531, San Martín de Porres 15106</t>
+          <t>Jirón Manuel Cisneros 492, La Victoria 15033</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Industria</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1557,32 +1558,32 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="D25" t="n">
         <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>P194</t>
+          <t>P223</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>E/S CALLE DERECHA</t>
+          <t>E/S FELVERANA</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Av García Alonso 195, Huaral 15201</t>
+          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1594,87 +1595,87 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>ANC-872</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>P283</t>
+          <t>1011063</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>VILLA MARIA DEL TRIUNFO</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>E/S QUILCA</t>
+          <t>ESTACION DE SERVICIOS NUEVO</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Av. Quilca 531, San Martín de Porres 15106</t>
+          <t>Av Pachacutec 5295, Villa María del Triunfo 15818</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>ANC-872</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>P285</t>
+          <t>P223</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>E/S REPÚBLICA</t>
+          <t>E/S FELVERANA</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
+          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1686,41 +1687,41 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>ANC-872</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>P223</t>
+          <t>P283</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>E/S FELVERANA</t>
+          <t>E/S QUILCA</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
+          <t>Av. Quilca 531, San Martín de Porres 15106</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1732,87 +1733,87 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>P154</t>
+          <t>1011063</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>VILLA MARIA DEL TRIUNFO</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>E/S CHANCAY 2</t>
+          <t>ESTACION DE SERVICIOS NUEVO</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 83.9, 15130</t>
+          <t>Av Pachacutec 5295, Villa María del Triunfo 15818</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
         <v>2</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>P159</t>
+          <t>P285</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>E/S COLONIAL 1</t>
+          <t>E/S REPÚBLICA</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
+          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1824,19 +1825,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
@@ -1870,41 +1871,41 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>P285</t>
+          <t>P154</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>E/S REPÚBLICA</t>
+          <t>E/S CHANCAY 2</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
+          <t>Av. Panamericana Nte. 83.9, 15130</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1916,41 +1917,41 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>P167</t>
+          <t>P159</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>E/S MIRAFLORES</t>
+          <t>E/S COLONIAL 1</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>VXGG+H2W, Lima 15074</t>
+          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1962,87 +1963,87 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>P285</t>
+          <t>1011063</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>VILLA MARIA DEL TRIUNFO</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>E/S REPÚBLICA</t>
+          <t>ESTACION DE SERVICIOS NUEVO</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
+          <t>Av Pachacutec 5295, Villa María del Triunfo 15818</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="D35" t="n">
+        <v>6</v>
+      </c>
+      <c r="E35" t="n">
         <v>4</v>
       </c>
-      <c r="E35" t="n">
-        <v>3</v>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>P154</t>
+          <t>P285</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>E/S CHANCAY 2</t>
+          <t>E/S REPÚBLICA</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 83.9, 15130</t>
+          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2054,16 +2055,16 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D36" t="n">
         <v>7</v>
@@ -2100,16 +2101,16 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D37" t="n">
         <v>7</v>
@@ -2119,22 +2120,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>P159</t>
+          <t>P285</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>E/S COLONIAL 1</t>
+          <t>E/S REPÚBLICA</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
+          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2146,16 +2147,16 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D38" t="n">
         <v>7</v>
@@ -2165,22 +2166,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>P199</t>
+          <t>P154</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SAN ISIDRO</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>E/S CASTAÑOS</t>
+          <t>E/S CHANCAY 2</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
+          <t>Av. Panamericana Nte. 83.9, 15130</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2192,41 +2193,41 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>P297</t>
+          <t>P154</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>E/S SAN LUIS 2</t>
+          <t>E/S CHANCAY 2</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Av. San Luis 2605, San Borja 15037</t>
+          <t>Av. Panamericana Nte. 83.9, 15130</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2238,41 +2239,41 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>P154</t>
+          <t>P167</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>E/S CHANCAY 2</t>
+          <t>E/S MIRAFLORES</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 83.9, 15130</t>
+          <t>VXGG+H2W, Lima 15074</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2284,41 +2285,41 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>P215</t>
+          <t>P167</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>E/S EL CARMELO</t>
+          <t>E/S MIRAFLORES</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Av. la Marina 3112, San Miguel 15088</t>
+          <t>VXGG+H2W, Lima 15074</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2330,19 +2331,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E42" t="n">
         <v>2</v>
@@ -2376,87 +2377,87 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>P199</t>
+          <t>1011179</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>SAN ISIDRO</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>E/S CASTAÑOS</t>
+          <t>JLF ASOCIADOS S.A.C.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
+          <t>Jr Paseo del Bosque 810-890, San Borja 15037</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>P297</t>
+          <t>P199</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>SAN ISIDRO</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>E/S SAN LUIS 2</t>
+          <t>E/S CASTAÑOS</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Av. San Luis 2605, San Borja 15037</t>
+          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2468,22 +2469,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D45" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2514,41 +2515,41 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D46" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>P215</t>
+          <t>P159</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>E/S EL CARMELO</t>
+          <t>E/S COLONIAL 1</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Av. la Marina 3112, San Miguel 15088</t>
+          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2560,12 +2561,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2579,22 +2580,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>P171</t>
+          <t>P199</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>CANTO GRANDE</t>
+          <t>SAN ISIDRO</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>E/S WIESSE</t>
+          <t>E/S CASTAÑOS</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Av. El Bosque, San Juan de Lurigancho 15419</t>
+          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2606,12 +2607,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2652,12 +2653,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2671,68 +2672,68 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>P215</t>
+          <t>1011179</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>E/S EL CARMELO</t>
+          <t>JLF ASOCIADOS S.A.C.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Av. la Marina 3112, San Miguel 15088</t>
+          <t>Jr Paseo del Bosque 810-890, San Borja 15037</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>4000</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>P215</t>
+          <t>P199</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN ISIDRO</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>E/S EL CARMELO</t>
+          <t>E/S CASTAÑOS</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Av. la Marina 3112, San Miguel 15088</t>
+          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2744,99 +2745,99 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>4000</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51" t="n">
         <v>2</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>P171</t>
+          <t>1012165</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>CANTO GRANDE</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>E/S WIESSE</t>
+          <t>TURISMO CIVA S.A.C.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Av. El Bosque, San Juan de Lurigancho 15419</t>
+          <t>Sancho de Rivera 1184, Cercado de Lima 15001</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Industria</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>AFZ-941</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>4000</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>P265</t>
+          <t>1012165</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>LA MOLINA</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>E/S MONTERRICO</t>
+          <t>TURISMO CIVA S.A.C.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Av. la Molina 580, La Molina 15023</t>
+          <t>Sancho de Rivera 1184, Cercado de Lima 15001</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Industria</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>AUG-888</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2845,44 +2846,44 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>P171</t>
+          <t>1012165</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>CANTO GRANDE</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>E/S WIESSE</t>
+          <t>TURISMO CIVA S.A.C.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Av. El Bosque, San Juan de Lurigancho 15419</t>
+          <t>Sancho de Rivera 1184, Cercado de Lima 15001</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Industria</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>AUG-888</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2891,32 +2892,32 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>P265</t>
+          <t>P297</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>LA MOLINA</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>E/S MONTERRICO</t>
+          <t>E/S SAN LUIS 2</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Av. la Molina 580, La Molina 15023</t>
+          <t>Av. San Luis 2605, San Borja 15037</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2928,41 +2929,41 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>AVL-851</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>P265</t>
+          <t>P297</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>LA MOLINA</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>E/S MONTERRICO</t>
+          <t>E/S SAN LUIS 2</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Av. la Molina 580, La Molina 15023</t>
+          <t>Av. San Luis 2605, San Borja 15037</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2974,41 +2975,41 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>B6J-896</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>P265</t>
+          <t>P297</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>LA MOLINA</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>E/S MONTERRICO</t>
+          <t>E/S SAN LUIS 2</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Av. la Molina 580, La Molina 15023</t>
+          <t>Av. San Luis 2605, San Borja 15037</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3020,7 +3021,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>D5Q-922</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3029,32 +3030,32 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>P255</t>
+          <t>P297</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>CANTO GRANDE</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>E/S LURIGANCHO</t>
+          <t>E/S SAN LUIS 2</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Av. Lurigancho 1175, San Juan de Lurigancho 15427</t>
+          <t>Av. San Luis 2605, San Borja 15037</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3074,7 +3075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3156,27 +3157,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>P292</t>
+          <t>1003274</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>E/S SAN CARLOS</t>
+          <t>ESTACION DE SERVICIOS LA MARINA S.A.C.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>P4H3+35F, Lurín 15823</t>
+          <t>Av. la Marina 405, La Perla 07011</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
@@ -3202,68 +3203,68 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P292</t>
+          <t>1010840</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>COMAS</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>E/S SAN CARLOS</t>
+          <t>GRIFO TRAPICHE S.R.L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>P4H3+35F, Lurín 15823</t>
+          <t>Au. Chillón Trapiche 665, Comas 15316</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9000</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>P236</t>
+          <t>P215</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>JESUS MARIA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>E/S HUIRACOCHA</t>
+          <t>E/S EL CARMELO</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Av. Gregorio Escobedo 410, Jesús María 15072</t>
+          <t>Av. la Marina 3112, San Miguel 15088</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -3275,87 +3276,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>9000</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>P180</t>
+          <t>1010564</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>E/S VILLA EL SALVADOR</t>
+          <t>VELDI S.A.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>R24P+P5X, Villa EL Salvador 15842</t>
+          <t>Av. Gral. Córdova 1025, Cercado de Lima 15076</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>9000</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>P292</t>
+          <t>P171</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>CANTO GRANDE</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>E/S SAN CARLOS</t>
+          <t>E/S WIESSE</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>P4H3+35F, Lurín 15823</t>
+          <t>Av. El Bosque, San Juan de Lurigancho 15419</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3367,41 +3368,41 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>9000</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P236</t>
+          <t>P265</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>JESUS MARIA</t>
+          <t>LA MOLINA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>E/S HUIRACOCHA</t>
+          <t>E/S MONTERRICO</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Av. Gregorio Escobedo 410, Jesús María 15072</t>
+          <t>Av. la Molina 580, La Molina 15023</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3413,41 +3414,41 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>9000</v>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>P180</t>
+          <t>P292</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>E/S VILLA EL SALVADOR</t>
+          <t>E/S SAN CARLOS</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>R24P+P5X, Villa EL Salvador 15842</t>
+          <t>P4H3+35F, Lurín 15823</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3459,87 +3460,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>P101</t>
+          <t>1010840</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>COMAS</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>E/S MIGUEL ANGEL</t>
+          <t>GRIFO TRAPICHE S.R.L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Av. Lima 2000, Villa María del Triunfo 15816</t>
+          <t>Au. Chillón Trapiche 665, Comas 15316</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P180</t>
+          <t>P215</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>E/S VILLA EL SALVADOR</t>
+          <t>E/S EL CARMELO</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>R24P+P5X, Villa EL Salvador 15842</t>
+          <t>Av. la Marina 3112, San Miguel 15088</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3551,26 +3552,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>P122</t>
+          <t>1010564</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3580,58 +3581,58 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>E/S ALEGRÍA</t>
+          <t>VELDI S.A.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Av. Alfredo Benavides 2116, Miraflores 15048</t>
+          <t>Av. Gral. Córdova 1025, Cercado de Lima 15076</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>P113</t>
+          <t>P171</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>CANTO GRANDE</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>E/S HUARALINO</t>
+          <t>E/S WIESSE</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Chancay 351, Huaral 15202</t>
+          <t>Av. El Bosque, San Juan de Lurigancho 15419</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3643,41 +3644,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>P113</t>
+          <t>P265</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>LA MOLINA</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>E/S HUARALINO</t>
+          <t>E/S MONTERRICO</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Chancay 351, Huaral 15202</t>
+          <t>Av. la Molina 580, La Molina 15023</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3689,133 +3690,133 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>P101</t>
+          <t>1002643</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>E/S MIGUEL ANGEL</t>
+          <t>ESTACION CORMAR S.A.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Av. Lima 2000, Villa María del Triunfo 15816</t>
+          <t>W2XV+88P, Ate 15012</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>P246</t>
+          <t>1010564</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>E/S LA PAZ 1</t>
+          <t>VELDI S.A.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Av. La Paz 925, San Miguel 15087</t>
+          <t>Av. Gral. Córdova 1025, Cercado de Lima 15076</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>P193</t>
+          <t>P265</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>LA MOLINA</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>E/S CHILCA</t>
+          <t>E/S MONTERRICO</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1S, Chilca 15871</t>
+          <t>Av. la Molina 580, La Molina 15023</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3827,41 +3828,41 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>P193</t>
+          <t>P215</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>E/S CHILCA</t>
+          <t>E/S EL CARMELO</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1S, Chilca 15871</t>
+          <t>Av. la Marina 3112, San Miguel 15088</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3873,7 +3874,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>APM-857</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3882,32 +3883,32 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="D18" t="n">
         <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>P296</t>
+          <t>P171</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SAN LUIS</t>
+          <t>CANTO GRANDE</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>E/S SAN LUIS 1</t>
+          <t>E/S WIESSE</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón 1340, San Luis 15019</t>
+          <t>Av. El Bosque, San Juan de Lurigancho 15419</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3919,7 +3920,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>APM-857</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3928,32 +3929,32 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="D19" t="n">
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>P327</t>
+          <t>P265</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ZARATE</t>
+          <t>LA MOLINA</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>E/S ZARATE</t>
+          <t>E/S MONTERRICO</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
+          <t>Av. la Molina 580, La Molina 15023</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3965,41 +3966,41 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>P296</t>
+          <t>P193</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SAN LUIS</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>E/S SAN LUIS 1</t>
+          <t>E/S CHILCA</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón 1340, San Luis 15019</t>
+          <t>1S, Chilca 15871</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -4011,41 +4012,41 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>P327</t>
+          <t>P265</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ZARATE</t>
+          <t>LA MOLINA</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>E/S ZARATE</t>
+          <t>E/S MONTERRICO</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
+          <t>Av. la Molina 580, La Molina 15023</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -4057,41 +4058,41 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>P181</t>
+          <t>P255</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PUNTA HERMOSA</t>
+          <t>CANTO GRANDE</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>E/S PUNTA HERMOSA</t>
+          <t>E/S LURIGANCHO</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Carr. Panamericana Sur, 1S, Lima</t>
+          <t>Av. Lurigancho 1175, San Juan de Lurigancho 15427</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4103,41 +4104,41 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>P327</t>
+          <t>P292</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ZARATE</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>E/S ZARATE</t>
+          <t>E/S SAN CARLOS</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
+          <t>P4H3+35F, Lurín 15823</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4149,41 +4150,41 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>P390</t>
+          <t>P236</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>OQUENDO</t>
+          <t>JESUS MARIA</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>E/S GAMBETA</t>
+          <t>E/S HUIRACOCHA</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Av. Nestor Gambetta 76, Callao 07046</t>
+          <t>Av. Gregorio Escobedo 410, Jesús María 15072</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4195,41 +4196,41 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>P390</t>
+          <t>P292</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>OQUENDO</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>E/S GAMBETA</t>
+          <t>E/S SAN CARLOS</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Av. Nestor Gambetta 76, Callao 07046</t>
+          <t>P4H3+35F, Lurín 15823</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -4241,41 +4242,41 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>P390</t>
+          <t>P236</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>OQUENDO</t>
+          <t>JESUS MARIA</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>E/S GAMBETA</t>
+          <t>E/S HUIRACOCHA</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Av. Nestor Gambetta 76, Callao 07046</t>
+          <t>Av. Gregorio Escobedo 410, Jesús María 15072</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -4287,41 +4288,41 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>ANC-872</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>P181</t>
+          <t>P292</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>PUNTA HERMOSA</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>E/S PUNTA HERMOSA</t>
+          <t>E/S SAN CARLOS</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Carr. Panamericana Sur, 1S, Lima</t>
+          <t>P4H3+35F, Lurín 15823</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -4333,41 +4334,41 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>P181</t>
+          <t>P292</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>PUNTA HERMOSA</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>E/S PUNTA HERMOSA</t>
+          <t>E/S SAN CARLOS</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Carr. Panamericana Sur, 1S, Lima</t>
+          <t>P4H3+35F, Lurín 15823</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -4379,41 +4380,41 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>P132</t>
+          <t>P236</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE PORRES</t>
+          <t>JESUS MARIA</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>E/S TOMÁS VALLE</t>
+          <t>E/S HUIRACOCHA</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
+          <t>Av. Gregorio Escobedo 410, Jesús María 15072</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -4425,41 +4426,41 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>P201</t>
+          <t>P180</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>E/S CHANCAY 1</t>
+          <t>E/S VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 90.5, 15130</t>
+          <t>R24P+P5X, Villa EL Salvador 15842</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4471,41 +4472,41 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>P132</t>
+          <t>P292</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE PORRES</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>E/S TOMÁS VALLE</t>
+          <t>E/S SAN CARLOS</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
+          <t>P4H3+35F, Lurín 15823</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4517,41 +4518,41 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>P181</t>
+          <t>P180</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PUNTA HERMOSA</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>E/S PUNTA HERMOSA</t>
+          <t>E/S VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Carr. Panamericana Sur, 1S, Lima</t>
+          <t>R24P+P5X, Villa EL Salvador 15842</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4563,41 +4564,41 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>4000</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>P201</t>
+          <t>P180</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>E/S CHANCAY 1</t>
+          <t>E/S VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 90.5, 15130</t>
+          <t>R24P+P5X, Villa EL Salvador 15842</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4609,41 +4610,41 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>4000</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>P132</t>
+          <t>P122</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE PORRES</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>E/S TOMÁS VALLE</t>
+          <t>E/S ALEGRÍA</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
+          <t>Av. Alfredo Benavides 2116, Miraflores 15048</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4655,41 +4656,41 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>4000</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>P102</t>
+          <t>P113</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>E/S 28 DE JULIO</t>
+          <t>E/S HUARALINO</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
+          <t>Chancay 351, Huaral 15202</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4701,41 +4702,41 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>4000</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>P132</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE PORRES</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>E/S TOMÁS VALLE</t>
+          <t>E/S MIGUEL ANGEL</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
+          <t>Av. Lima 2000, Villa María del Triunfo 15816</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4747,41 +4748,41 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>4000</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
         <v>2</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>P102</t>
+          <t>P180</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>E/S 28 DE JULIO</t>
+          <t>E/S VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
+          <t>R24P+P5X, Villa EL Salvador 15842</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4793,41 +4794,41 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>4000</v>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>P152</t>
+          <t>P122</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>E/S NAVAL</t>
+          <t>E/S ALEGRÍA</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Av. San Luis 2480, San Borja 15037</t>
+          <t>Av. Alfredo Benavides 2116, Miraflores 15048</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4839,41 +4840,41 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>4000</v>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>P152</t>
+          <t>P113</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>E/S NAVAL</t>
+          <t>E/S HUARALINO</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Av. San Luis 2480, San Borja 15037</t>
+          <t>Chancay 351, Huaral 15202</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -4885,41 +4886,41 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>4000</v>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>P309</t>
+          <t>P113</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>E/S SUDAMERICANO</t>
+          <t>E/S HUARALINO</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
+          <t>Chancay 351, Huaral 15202</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -4931,41 +4932,41 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AFZ-941</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>4000</v>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>P152</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>E/S NAVAL</t>
+          <t>E/S MIGUEL ANGEL</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Av. San Luis 2480, San Borja 15037</t>
+          <t>Av. Lima 2000, Villa María del Triunfo 15816</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -4977,12 +4978,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AFZ-941</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4992,26 +4993,26 @@
         <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>P309</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>E/S SUDAMERICANO</t>
+          <t>E/S MIGUEL ANGEL</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
+          <t>Av. Lima 2000, Villa María del Triunfo 15816</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5023,26 +5024,26 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AUG-888</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>P165</t>
+          <t>P246</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -5052,12 +5053,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>E/S ESCARDÓ</t>
+          <t>E/S LA PAZ 1</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Av. Rafael Escardó 250, San Miguel 15087</t>
+          <t>Av. La Paz 925, San Miguel 15087</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5069,133 +5070,133 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AUG-888</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>P309</t>
+          <t>1010882</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>E/S SUDAMERICANO</t>
+          <t>TRAILER GAS S.A.C.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
+          <t>Naranjas 190, Los Olivos 15314</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AUG-888</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>P135</t>
+          <t>1010882</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>E/S ATE 1</t>
+          <t>TRAILER GAS S.A.C.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Tomas Alva Edison 160, Lima 15022</t>
+          <t>Naranjas 190, Los Olivos 15314</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AVL-851</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>P135</t>
+          <t>P193</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>E/S ATE 1</t>
+          <t>E/S CHILCA</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Tomas Alva Edison 160, Lima 15022</t>
+          <t>1S, Chilca 15871</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5207,44 +5208,366 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>AFZ-941</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>P193</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>CHILCA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>E/S CHILCA</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1S, Chilca 15871</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>AUG-888</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>P193</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>CHILCA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>E/S CHILCA</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1S, Chilca 15871</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>AUG-888</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>P296</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>SAN LUIS</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>E/S SAN LUIS 1</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Av. Nicolás Ayllón 1340, San Luis 15019</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>AUG-888</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>P327</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>ZARATE</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>E/S ZARATE</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>AVL-851</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C51" t="n">
         <v>3500</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D51" t="n">
         <v>4</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>P296</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>SAN LUIS</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>E/S SAN LUIS 1</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Av. Nicolás Ayllón 1340, San Luis 15019</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>AVL-851</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="n">
         <v>2</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>P165</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>SAN MIGUEL</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>E/S ESCARDÓ</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Av. Rafael Escardó 250, San Miguel 15087</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>P327</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>ZARATE</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>E/S ZARATE</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B6J-896</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>P327</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>ZARATE</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>E/S ZARATE</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>D5Q-922</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>P327</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ZARATE</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>E/S ZARATE</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>COESTI</t>
         </is>
@@ -5261,7 +5584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5343,22 +5666,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>P133</t>
+          <t>P390</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>OQUENDO</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>E/S ARMENDARIZ</t>
+          <t>E/S GAMBETA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Armendariz 575, Miraflores 15074</t>
+          <t>Av. Nestor Gambetta 76, Callao 07046</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -5389,22 +5712,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P216</t>
+          <t>P181</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CHORRILLOS</t>
+          <t>PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>E/S EL CHORRILLANO</t>
+          <t>E/S PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
+          <t>Carr. Panamericana Sur, 1S, Lima</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -5416,7 +5739,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AYR-771</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5428,29 +5751,29 @@
         <v>9000</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>P275</t>
+          <t>P181</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>E/S PANSUR</t>
+          <t>E/S PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
+          <t>Carr. Panamericana Sur, 1S, Lima</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -5477,26 +5800,26 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>P275</t>
+          <t>P132</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>E/S PANSUR</t>
+          <t>E/S TOMÁS VALLE</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
+          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -5523,26 +5846,26 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>P133</t>
+          <t>P102</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>E/S ARMENDARIZ</t>
+          <t>E/S 28 DE JULIO</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Armendariz 575, Miraflores 15074</t>
+          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -5569,31 +5892,31 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P216</t>
+          <t>1011710</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CHORRILLOS</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>E/S EL CHORRILLANO</t>
+          <t>GASCORVILL S.A.C.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
+          <t>Av. Pacasmayo 3, Callao 07031</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
@@ -5615,26 +5938,26 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>P217</t>
+          <t>P152</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>E/S EL ROSARIO</t>
+          <t>E/S NAVAL</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Av. Angamos 1795, Surquillo 15048</t>
+          <t>Av. San Luis 2480, San Borja 15037</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -5646,41 +5969,41 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>9000</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>P275</t>
+          <t>P309</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>E/S PANSUR</t>
+          <t>E/S SUDAMERICANO</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
+          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -5692,41 +6015,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>9000</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P133</t>
+          <t>P275</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>E/S ARMENDARIZ</t>
+          <t>E/S PANSUR</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Armendariz 575, Miraflores 15074</t>
+          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -5738,41 +6061,41 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>9000</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>P216</t>
+          <t>P390</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CHORRILLOS</t>
+          <t>OQUENDO</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>E/S EL CHORRILLANO</t>
+          <t>E/S GAMBETA</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
+          <t>Av. Nestor Gambetta 76, Callao 07046</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -5799,26 +6122,26 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>P217</t>
+          <t>P201</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>E/S EL ROSARIO</t>
+          <t>E/S CHANCAY 1</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Av. Angamos 1795, Surquillo 15048</t>
+          <t>Av. Panamericana Nte. 90.5, 15130</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -5845,26 +6168,26 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>P244</t>
+          <t>P132</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>E/S LA MARINA</t>
+          <t>E/S TOMÁS VALLE</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Av. la Marina 2155, San Miguel 15087</t>
+          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -5876,41 +6199,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>9000</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>P269</t>
+          <t>P181</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ÑAÑA</t>
+          <t>PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>E/S ÑAÑA</t>
+          <t>E/S PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Carr. Central 912, Chaclacayo 15476</t>
+          <t>Carr. Panamericana Sur, 1S, Lima</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -5937,26 +6260,26 @@
         <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>P216</t>
+          <t>P201</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CHORRILLOS</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>E/S EL CHORRILLANO</t>
+          <t>E/S CHANCAY 1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
+          <t>Av. Panamericana Nte. 90.5, 15130</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -5983,26 +6306,26 @@
         <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>P125</t>
+          <t>P132</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>RÍMAC</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>E/S LOLESA</t>
+          <t>E/S TOMÁS VALLE</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Av. Francisco Pizarro Cdra. 9, Rímac 15094</t>
+          <t>Av. Tomas Valle 846, San Martín de Porres 15302</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -6029,26 +6352,26 @@
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>P217</t>
+          <t>P102</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>E/S EL ROSARIO</t>
+          <t>E/S 28 DE JULIO</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Av. Angamos 1795, Surquillo 15048</t>
+          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -6075,72 +6398,72 @@
         <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>P244</t>
+          <t>1011710</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>E/S LA MARINA</t>
+          <t>GASCORVILL S.A.C.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Av. la Marina 2155, San Miguel 15087</t>
+          <t>Av. Pacasmayo 3, Callao 07031</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>P244</t>
+          <t>P152</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>E/S LA MARINA</t>
+          <t>E/S NAVAL</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Av. la Marina 2155, San Miguel 15087</t>
+          <t>Av. San Luis 2480, San Borja 15037</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -6152,41 +6475,41 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>P269</t>
+          <t>P309</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ÑAÑA</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>E/S ÑAÑA</t>
+          <t>E/S SUDAMERICANO</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Carr. Central 912, Chaclacayo 15476</t>
+          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -6198,44 +6521,2231 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>D5D-868</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>P135</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ATE</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>E/S ATE 1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Tomas Alva Edison 160, Lima 15022</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>APM-857</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>P135</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ATE</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>E/S ATE 1</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Tomas Alva Edison 160, Lima 15022</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>APM-857</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>P165</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SAN MIGUEL</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>E/S ESCARDÓ</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Av. Rafael Escardó 250, San Miguel 15087</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>APM-857</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>P152</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>SAN BORJA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>E/S NAVAL</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Av. San Luis 2480, San Borja 15037</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>APM-857</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>P309</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>CERCADO DE LIMA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>E/S SUDAMERICANO</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>APM-857</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1015412</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>CALLAO</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NEPTUNIA S.A.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Av. Argentina 2085, Callao 07001</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Industria</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>B7K-982</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>TRANSPORTES TESA</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>7500</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>8</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>P275</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>LURIN</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>E/S PANSUR</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>P135</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ATE</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>E/S ATE 1</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Tomas Alva Edison 160, Lima 15022</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>P165</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>SAN MIGUEL</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>E/S ESCARDÓ</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Av. Rafael Escardó 250, San Miguel 15087</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ANW-916</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>P133</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>MIRAFLORES</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>E/S ARMENDARIZ</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Armendariz 575, Miraflores 15074</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ANW-916</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1003089</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>CHORRILLOS</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>SERVICENTRO TACALA S.R.L.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Av San Martín, Chorrillos 15057</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ANW-916</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>P275</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>LURIN</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>E/S PANSUR</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ANC-872</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>P133</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>MIRAFLORES</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>E/S ARMENDARIZ</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Armendariz 575, Miraflores 15074</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ANC-872</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1002706</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>PACHACAMAC</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>GRIFOS TERESA DE CALCUTA S.A.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Dsv.Manchay, Car. Cieneguilla Nro. S/n (Km 11.5, Pachacamac</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Independientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ANC-872</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1003089</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>CHORRILLOS</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>SERVICENTRO TACALA S.R.L.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Av San Martín, Chorrillos 15057</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ANC-872</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>P275</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>LURIN</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>E/S PANSUR</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B7N-933</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1011014</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>VILLA EL SALVADOR</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>PACHACUTEC INVERSIONES GENERALES S.A.C.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Av El Sol 127, Villa EL Salvador 15816</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B7N-933</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1002634</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ATE</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>INVERSIONES LUMARCO S.A.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Carretera Central km 11.50 AAHH La Estrella, ATE, Lima</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B7N-933</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>7</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1002706</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>PACHACAMAC</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>GRIFOS TERESA DE CALCUTA S.A.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Dsv.Manchay, Car. Cieneguilla Nro. S/n (Km 11.5, Pachacamac</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Independientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B7N-933</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>7</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1003089</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>CHORRILLOS</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>SERVICENTRO TACALA S.R.L.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Av San Martín, Chorrillos 15057</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B7N-933</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1002737</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>CERCADO DE LIMA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>ESTACION DE SERVICIO NIAGARA S.R.L.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Jiron Elvira Garcia y Garcia 2790, Cercado de Lima 15081</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BCQ-737</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1011014</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>VILLA EL SALVADOR</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>PACHACUTEC INVERSIONES GENERALES S.A.C.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Av El Sol 127, Villa EL Salvador 15816</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BCQ-737</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1002634</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ATE</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>INVERSIONES LUMARCO S.A.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Carretera Central km 11.50 AAHH La Estrella, ATE, Lima</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BCQ-737</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1002737</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>CERCADO DE LIMA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>ESTACION DE SERVICIO NIAGARA S.R.L.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Jiron Elvira Garcia y Garcia 2790, Cercado de Lima 15081</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BJV-928</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1011014</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>VILLA EL SALVADOR</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>PACHACUTEC INVERSIONES GENERALES S.A.C.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Av El Sol 127, Villa EL Salvador 15816</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BJV-928</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MULTITRANS RR</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>P216</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CHORRILLOS</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>E/S EL CHORRILLANO</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AJF-705</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1013034</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>CERCADO DE LIMA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>MOVIL BUS S.A.C.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Av. Materiales 2215, Cercado de Lima 15081</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Industria</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>AUG-895</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1002634</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>ATE</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>INVERSIONES LUMARCO S.A.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Carretera Central km 11.50 AAHH La Estrella, ATE, Lima</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>AUG-895</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>P125</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>RÍMAC</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>E/S LOLESA</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Av. Francisco Pizarro Cdra. 9, Rímac 15094</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>AUG-895</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1000156</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>CALLAO</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>PRODUCTOS DE ACERO CASSADO PRODAC S.A.C.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Av. Nestor Gambetta 6429, Callao 07046</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Industria</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>AUG-895</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1013034</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>CERCADO DE LIMA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>MOVIL BUS S.A.C.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Av. Materiales 2215, Cercado de Lima 15081</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Industria</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>AHP-831</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1002634</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>ATE</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>INVERSIONES LUMARCO S.A.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Carretera Central km 11.50 AAHH La Estrella, ATE, Lima</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>AHP-831</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>P125</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>RÍMAC</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>E/S LOLESA</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Av. Francisco Pizarro Cdra. 9, Rímac 15094</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>V5I-821</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>UL&amp;PH INVERSIONES SAC</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1002634</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ATE</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>INVERSIONES LUMARCO S.A.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Carretera Central km 11.50 AAHH La Estrella, ATE, Lima</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>D1J-885</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>P216</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>CHORRILLOS</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>E/S EL CHORRILLANO</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>AFZ-941</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>P216</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>CHORRILLOS</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>E/S EL CHORRILLANO</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AFZ-941</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>P125</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>RÍMAC</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>E/S LOLESA</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Av. Francisco Pizarro Cdra. 9, Rímac 15094</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>AUG-888</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>P217</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>SANTIAGO DE SURCO</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>E/S EL ROSARIO</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Av. Angamos 1795, Surquillo 15048</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>AVL-851</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>P217</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>SANTIAGO DE SURCO</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>E/S EL ROSARIO</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Av. Angamos 1795, Surquillo 15048</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>AVL-851</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1002721</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>SAN MIGUEL</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>INVERSIONES UCHIYAMA S.A.C.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Av. La Mar 2382, San Miguel 15088</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>AVL-851</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1000156</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>CALLAO</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>PRODUCTOS DE ACERO CASSADO PRODAC S.A.C.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Av. Nestor Gambetta 6429, Callao 07046</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Industria</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Placa de tracto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacidad total</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t># Compartimentos</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Orden de llegada</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Destinatario</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t># Distrito</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Estación</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Dirección</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AYR-771</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1010770</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SANTIAGO DE SURCO</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CORPORACION BLUE GAS S.A.C.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Jirón el Alamo 121, Lima 15023</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AYR-771</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>P244</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SAN MIGUEL</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>E/S LA MARINA</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Av. la Marina 2155, San Miguel 15087</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BED-794</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1010770</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>SANTIAGO DE SURCO</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CORPORACION BLUE GAS S.A.C.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Jirón el Alamo 121, Lima 15023</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AXY-949</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>P244</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SAN MIGUEL</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>E/S LA MARINA</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Av. la Marina 2155, San Miguel 15087</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AXY-949</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>P269</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>ÑAÑA</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>E/S ÑAÑA</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Carr. Central 912, Chaclacayo 15476</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>D5D-868</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>P269</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ÑAÑA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>E/S ÑAÑA</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Carr. Central 912, Chaclacayo 15476</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>COESTI</t>
         </is>

--- a/datos_salida/Recorrido_Estaciones_Unidades.xlsx
+++ b/datos_salida/Recorrido_Estaciones_Unidades.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,19 +490,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>AUG-888</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -536,22 +536,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>AVL-851</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -582,19 +582,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4000</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -628,65 +628,65 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4000</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>P171</t>
+          <t>1011710</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CANTO GRANDE</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>E/S WIESSE</t>
+          <t>GASCORVILL S.A.C.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Av. El Bosque, San Juan de Lurigancho 15419</t>
+          <t>Av. Pacasmayo 3, Callao 07031</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4000</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -720,26 +720,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4000</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P255</t>
+          <t>P171</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>E/S LURIGANCHO</t>
+          <t>E/S WIESSE</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Av. Lurigancho 1175, San Juan de Lurigancho 15427</t>
+          <t>Av. El Bosque, San Juan de Lurigancho 15419</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -785,34 +785,34 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1002737</t>
+          <t>P217</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ESTACION DE SERVICIO NIAGARA S.R.L.</t>
+          <t>E/S EL ROSARIO</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Jiron Elvira Garcia y Garcia 2790, Cercado de Lima 15081</t>
+          <t>Av. Angamos 1795, Surquillo 15048</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFZ-941</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -831,39 +831,39 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>P152</t>
+          <t>1002737</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>E/S NAVAL</t>
+          <t>ESTACION DE SERVICIO NIAGARA S.R.L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Av. San Luis 2480, San Borja 15037</t>
+          <t>Jiron Elvira Garcia y Garcia 2790, Cercado de Lima 15081</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AXK-781</t>
+          <t>AFZ-941</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -877,27 +877,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1002685</t>
+          <t>P152</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>LA MOLINA</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ORGANIZACION FUTURO S.A.C.</t>
+          <t>E/S NAVAL</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Av. Javier Prado Este 6651, La Molina 15012</t>
+          <t>Av. San Luis 2480, San Borja 15037</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
@@ -919,38 +919,38 @@
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>P122</t>
+          <t>1002685</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>LA MOLINA</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>E/S ALEGRÍA</t>
+          <t>ORGANIZACION FUTURO S.A.C.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Av. Alfredo Benavides 2116, Miraflores 15048</t>
+          <t>Av. Javier Prado Este 6651, La Molina 15012</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ALT-928</t>
+          <t>AXK-781</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -965,11 +965,11 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>P133</t>
+          <t>P122</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>E/S ARMENDARIZ</t>
+          <t>E/S ALEGRÍA</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Armendariz 575, Miraflores 15074</t>
+          <t>Av. Alfredo Benavides 2116, Miraflores 15048</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ATB-820</t>
+          <t>ALT-928</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1015,22 +1015,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>P125</t>
+          <t>P133</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>RÍMAC</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>E/S LOLESA</t>
+          <t>E/S ARMENDARIZ</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Av. Francisco Pizarro Cdra. 9, Rímac 15094</t>
+          <t>Armendariz 575, Miraflores 15074</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1042,7 +1042,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BEL-721</t>
+          <t>ATB-820</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1061,22 +1061,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>P101</t>
+          <t>P125</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>RÍMAC</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>E/S MIGUEL ANGEL</t>
+          <t>E/S LOLESA</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Av. Lima 2000, Villa María del Triunfo 15816</t>
+          <t>Av. Francisco Pizarro Cdra. 9, Rímac 15094</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1088,41 +1088,41 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>BEL-721</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>P184</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE PORRES</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>E/S GAMARRA</t>
+          <t>E/S MIGUEL ANGEL</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Av. Universitaria 2015, San Martín de Porres 15108</t>
+          <t>Av. Lima 2000, Villa María del Triunfo 15816</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1134,7 +1134,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1146,29 +1146,29 @@
         <v>4500</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>P217</t>
+          <t>P184</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>E/S EL ROSARIO</t>
+          <t>E/S GAMARRA</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Av. Angamos 1795, Surquillo 15048</t>
+          <t>Av. Universitaria 2015, San Martín de Porres 15108</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1180,16 +1180,16 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D17" t="n">
         <v>7</v>
@@ -1199,114 +1199,114 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1002643</t>
+          <t>P201</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ESTACION CORMAR S.A.</t>
+          <t>E/S CHANCAY 1</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>W2XV+88P, Ate 15012</t>
+          <t>Av. Panamericana Nte. 90.5, 15130</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1013034</t>
+          <t>P255</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>CANTO GRANDE</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>MOVIL BUS S.A.C.</t>
+          <t>E/S LURIGANCHO</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Av. Materiales 2215, Cercado de Lima 15081</t>
+          <t>Av. Lurigancho 1175, San Juan de Lurigancho 15427</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Industria</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1010840</t>
+          <t>1002643</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>COMAS</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>GRIFO TRAPICHE S.R.L.</t>
+          <t>ESTACION CORMAR S.A.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Au. Chillón Trapiche 665, Comas 15316</t>
+          <t>W2XV+88P, Ate 15012</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1318,58 +1318,58 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>ANC-872</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>P201</t>
+          <t>1013034</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>E/S CHANCAY 1</t>
+          <t>MOVIL BUS S.A.C.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 90.5, 15130</t>
+          <t>Av. Materiales 2215, Cercado de Lima 15081</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Industria</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1379,38 +1379,38 @@
         <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>P236</t>
+          <t>1010840</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>JESUS MARIA</t>
+          <t>COMAS</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>E/S HUIRACOCHA</t>
+          <t>GRIFO TRAPICHE S.R.L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Av. Gregorio Escobedo 410, Jesús María 15072</t>
+          <t>Au. Chillón Trapiche 665, Comas 15316</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="D22" t="n">
         <v>8</v>
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1010882</t>
+          <t>P193</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE PORRES</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TRAILER GAS S.A.C.</t>
+          <t>E/S CHILCA</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Naranjas 190, Los Olivos 15314</t>
+          <t>1S, Chilca 15871</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
@@ -1471,26 +1471,26 @@
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1000156</t>
+          <t>1012165</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>PRODUCTOS DE ACERO CASSADO PRODAC S.A.C.</t>
+          <t>TURISMO CIVA S.A.C.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Av. Nestor Gambetta 6429, Callao 07046</t>
+          <t>Sancho de Rivera 1184, Cercado de Lima 15001</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1502,53 +1502,53 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>AYR-771</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>P191</t>
+          <t>1012160</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>E/S MARCO POLO</t>
+          <t>EMP. DE TRANSPORTES TURISTICO OLANO</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Av. Marco Polo, Callao 07021</t>
+          <t>Jirón Manuel Cisneros 492, La Victoria 15033</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Industria</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AYR-771</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1560,34 +1560,34 @@
         <v>9000</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1012165</t>
+          <t>P154</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TURISMO CIVA S.A.C.</t>
+          <t>E/S CHANCAY 2</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Sancho de Rivera 1184, Cercado de Lima 15001</t>
+          <t>Av. Panamericana Nte. 83.9, 15130</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Industria</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
@@ -1609,31 +1609,31 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1012160</t>
+          <t>P294</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>EMP. DE TRANSPORTES TURISTICO OLANO</t>
+          <t>E/S SAN JOSÉ</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Jirón Manuel Cisneros 492, La Victoria 15033</t>
+          <t>Av. Panamericana Nte. 928, Barranca 15169</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Industria</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
@@ -1659,71 +1659,117 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1002607</t>
+          <t>P165</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>AUTO SERVICIO LA PERLA S.A.</t>
+          <t>E/S ESCARDÓ</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Av. República de Venezuela, Bellavista 07011</t>
+          <t>Av. Rafael Escardó 250, San Miguel 15087</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>9000</v>
       </c>
       <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>P135</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ATE</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>E/S ATE 1</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Tomas Alva Edison 160, Lima 15022</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>D5D-868</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D29" t="n">
         <v>6</v>
       </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>P181</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>PUNTA HERMOSA</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>E/S PUNTA HERMOSA</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Carr. Panamericana Sur, 1S, Lima</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>COESTI</t>
         </is>
@@ -1740,7 +1786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1803,53 +1849,53 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>AUG-888</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1011179</t>
+          <t>P191</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>JLF ASOCIADOS S.A.C.</t>
+          <t>E/S MARCO POLO</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Jr Paseo del Bosque 810-890, San Borja 15037</t>
+          <t>Av. Marco Polo, Callao 07021</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>AVL-851</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1858,7 +1904,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -1868,68 +1914,68 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P165</t>
+          <t>1002634</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>E/S ESCARDÓ</t>
+          <t>INVERSIONES LUMARCO S.A.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Av. Rafael Escardó 250, San Miguel 15087</t>
+          <t>Carretera Central km 11.50 AAHH La Estrella, ATE, Lima</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4000</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1002634</t>
+          <t>1002607</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>INVERSIONES LUMARCO S.A.</t>
+          <t>AUTO SERVICIO LA PERLA S.A.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Carretera Central km 11.50 AAHH La Estrella, ATE, Lima</t>
+          <t>Av. República de Venezuela, Bellavista 07011</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1941,65 +1987,65 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4000</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>P215</t>
+          <t>1010882</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>E/S EL CARMELO</t>
+          <t>TRAILER GAS S.A.C.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Av. la Marina 3112, San Miguel 15088</t>
+          <t>Naranjas 190, Los Olivos 15314</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4000</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -2033,12 +2079,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AFZ-941</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2052,39 +2098,39 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P124</t>
+          <t>1011179</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>LINCE</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>E/S AREQUIPA 1</t>
+          <t>JLF ASOCIADOS S.A.C.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Av. Arequipa 3325, San Isidro 15046</t>
+          <t>Jr Paseo del Bosque 810-890, San Borja 15037</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AXK-781</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -2098,39 +2144,39 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1003089</t>
+          <t>P124</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CHORRILLOS</t>
+          <t>LINCE</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>SERVICENTRO TACALA S.R.L.</t>
+          <t>E/S AREQUIPA 1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Av San Martín, Chorrillos 15057</t>
+          <t>Av. Arequipa 3325, San Isidro 15046</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ALT-928</t>
+          <t>AFZ-941</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -2144,39 +2190,39 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1002706</t>
+          <t>1003089</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PACHACAMAC</t>
+          <t>CHORRILLOS</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>GRIFOS TERESA DE CALCUTA S.A.</t>
+          <t>SERVICENTRO TACALA S.R.L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Dsv.Manchay, Car. Cieneguilla Nro. S/n (Km 11.5, Pachacamac</t>
+          <t>Av San Martín, Chorrillos 15057</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Independientes</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ALT-928</t>
+          <t>AFZ-941</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2190,7 +2236,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1011710</t>
+          <t>1000156</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2200,24 +2246,24 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>GASCORVILL S.A.C.</t>
+          <t>PRODUCTOS DE ACERO CASSADO PRODAC S.A.C.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Av. Pacasmayo 3, Callao 07031</t>
+          <t>Av. Nestor Gambetta 6429, Callao 07046</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>Industria</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ATB-820</t>
+          <t>AXK-781</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2263,7 +2309,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BEL-721</t>
+          <t>ALT-928</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2282,68 +2328,68 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>1002706</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>PACHACAMAC</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>E/S TOMÁS MARSANO</t>
+          <t>GRIFOS TERESA DE CALCUTA S.A.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
+          <t>Dsv.Manchay, Car. Cieneguilla Nro. S/n (Km 11.5, Pachacamac</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Independientes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>ATB-820</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>P390</t>
+          <t>P236</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>OQUENDO</t>
+          <t>JESUS MARIA</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>E/S GAMBETA</t>
+          <t>E/S HUIRACOCHA</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Av. Nestor Gambetta 76, Callao 07046</t>
+          <t>Av. Gregorio Escobedo 410, Jesús María 15072</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2355,41 +2401,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>BEL-721</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>P275</t>
+          <t>P215</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>E/S PANSUR</t>
+          <t>E/S EL CARMELO</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
+          <t>Av. la Marina 3112, San Miguel 15088</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2401,41 +2447,41 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>P154</t>
+          <t>P390</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>OQUENDO</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>E/S CHANCAY 2</t>
+          <t>E/S GAMBETA</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 83.9, 15130</t>
+          <t>Av. Nestor Gambetta 76, Callao 07046</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2447,41 +2493,41 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>P159</t>
+          <t>P275</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>E/S COLONIAL 1</t>
+          <t>E/S PANSUR</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
+          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2493,108 +2539,108 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>P193</t>
+          <t>1010770</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>E/S CHILCA</t>
+          <t>CORPORACION BLUE GAS S.A.C.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1S, Chilca 15871</t>
+          <t>Jirón el Alamo 121, Lima 15023</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>ANC-872</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1011014</t>
+          <t>P159</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>PACHACUTEC INVERSIONES GENERALES S.A.C.</t>
+          <t>E/S COLONIAL 1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Av El Sol 127, Villa EL Salvador 15816</t>
+          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="D19" t="n">
         <v>8</v>
@@ -2604,22 +2650,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1007571</t>
+          <t>1011014</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>SERVICIOS Y REPRESENTACIONES TACNA</t>
+          <t>PACHACUTEC INVERSIONES GENERALES S.A.C.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Av Bausate y Meza 1050, La Victoria 15018</t>
+          <t>Av El Sol 127, Villa EL Salvador 15816</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2631,104 +2677,104 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AYR-771</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>P223</t>
+          <t>1007571</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>E/S FELVERANA</t>
+          <t>SERVICIOS Y REPRESENTACIONES TACNA</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
+          <t>Av Bausate y Meza 1050, La Victoria 15018</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>APM-857</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1015412</t>
+          <t>P327</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>ZARATE</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>NEPTUNIA S.A.</t>
+          <t>E/S ZARATE</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Av. Argentina 2085, Callao 07001</t>
+          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Industria</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>AYR-771</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2742,117 +2788,163 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1010770</t>
+          <t>P223</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>CORPORACION BLUE GAS S.A.C.</t>
+          <t>E/S FELVERANA</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Jirón el Alamo 121, Lima 15023</t>
+          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>9000</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>P327</t>
+          <t>1015412</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ZARATE</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>E/S ZARATE</t>
+          <t>NEPTUNIA S.A.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
+          <t>Av. Argentina 2085, Callao 07001</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Industria</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D5D-868</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>9000</v>
       </c>
       <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>P296</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>SAN LUIS</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>E/S SAN LUIS 1</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Av. Nicolás Ayllón 1340, San Luis 15019</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>D5D-868</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HERMELINDA HUATAY MANTILLA</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D25" t="n">
         <v>6</v>
       </c>
-      <c r="E24" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>P135</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>ATE</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>E/S ATE 1</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Tomas Alva Edison 160, Lima 15022</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>P216</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>CHORRILLOS</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>E/S EL CHORRILLANO</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>COESTI</t>
         </is>
@@ -2869,7 +2961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2951,22 +3043,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>P113</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>E/S HUARALINO</t>
+          <t>E/S TOMÁS MARSANO</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Chancay 351, Huaral 15202</t>
+          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2978,7 +3070,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2990,29 +3082,29 @@
         <v>4000</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P294</t>
+          <t>P244</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>E/S SAN JOSÉ</t>
+          <t>E/S LA MARINA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 928, Barranca 15169</t>
+          <t>Av. la Marina 2155, San Miguel 15087</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -3024,41 +3116,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4000</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>P296</t>
+          <t>P113</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SAN LUIS</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>E/S SAN LUIS 1</t>
+          <t>E/S HUARALINO</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón 1340, San Luis 15019</t>
+          <t>Chancay 351, Huaral 15202</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -3116,12 +3208,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AFZ-941</t>
+          <t>AXK-781</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3135,22 +3227,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>P244</t>
+          <t>P199</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN ISIDRO</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>E/S LA MARINA</t>
+          <t>E/S CASTAÑOS</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Av. la Marina 2155, San Miguel 15087</t>
+          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3162,41 +3254,41 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AXK-781</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P199</t>
+          <t>P102</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SAN ISIDRO</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>E/S CASTAÑOS</t>
+          <t>E/S 28 DE JULIO</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
+          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3208,7 +3300,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3220,29 +3312,29 @@
         <v>4500</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>P102</t>
+          <t>P309</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>E/S 28 DE JULIO</t>
+          <t>E/S SUDAMERICANO</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
+          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3254,16 +3346,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -3273,22 +3365,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>P309</t>
+          <t>P285</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>E/S SUDAMERICANO</t>
+          <t>E/S REPÚBLICA</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
+          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -3319,22 +3411,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P216</t>
+          <t>P194</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CHORRILLOS</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>E/S EL CHORRILLANO</t>
+          <t>E/S CALLE DERECHA</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Av. Defensores del Morro 350, Cercado de Lima, 15064</t>
+          <t>Av García Alonso 195, Huaral 15201</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3346,136 +3438,44 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>AYR-771</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>P194</t>
+          <t>P283</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>E/S CALLE DERECHA</t>
+          <t>E/S QUILCA</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Av García Alonso 195, Huaral 15201</t>
+          <t>Av. Quilca 531, San Martín de Porres 15106</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AYR-771</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>P283</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>CALLAO</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>E/S QUILCA</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Av. Quilca 531, San Martín de Porres 15106</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>D5D-868</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>P285</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>MIRAFLORES</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>E/S REPÚBLICA</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
         <is>
           <t>COESTI</t>
         </is>

--- a/datos_salida/Recorrido_Estaciones_Unidades.xlsx
+++ b/datos_salida/Recorrido_Estaciones_Unidades.xlsx
@@ -1226,150 +1226,150 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>P255</t>
+          <t>1002643</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CANTO GRANDE</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>E/S LURIGANCHO</t>
+          <t>ESTACION CORMAR S.A.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Av. Lurigancho 1175, San Juan de Lurigancho 15427</t>
+          <t>W2XV+88P, Ate 15012</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>ANC-872</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1002643</t>
+          <t>1013034</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ESTACION CORMAR S.A.</t>
+          <t>MOVIL BUS S.A.C.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>W2XV+88P, Ate 15012</t>
+          <t>Av. Materiales 2215, Cercado de Lima 15081</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>Industria</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1013034</t>
+          <t>1010840</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>COMAS</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>MOVIL BUS S.A.C.</t>
+          <t>GRIFO TRAPICHE S.R.L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Av. Materiales 2215, Cercado de Lima 15081</t>
+          <t>Au. Chillón Trapiche 665, Comas 15316</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Industria</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1383,34 +1383,34 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1010840</t>
+          <t>P193</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>COMAS</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>GRIFO TRAPICHE S.R.L.</t>
+          <t>E/S CHILCA</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Au. Chillón Trapiche 665, Comas 15316</t>
+          <t>1S, Chilca 15871</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>APM-857</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="D22" t="n">
         <v>8</v>
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>P193</t>
+          <t>1012165</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>E/S CHILCA</t>
+          <t>TURISMO CIVA S.A.C.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1S, Chilca 15871</t>
+          <t>Sancho de Rivera 1184, Cercado de Lima 15001</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Industria</t>
         </is>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1012165</t>
+          <t>P255</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>CANTO GRANDE</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>TURISMO CIVA S.A.C.</t>
+          <t>E/S LURIGANCHO</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Sancho de Rivera 1184, Cercado de Lima 15001</t>
+          <t>Av. Lurigancho 1175, San Juan de Lurigancho 15427</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Industria</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>

--- a/datos_salida/Recorrido_Estaciones_Unidades.xlsx
+++ b/datos_salida/Recorrido_Estaciones_Unidades.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,41 +628,41 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4000</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1011710</t>
+          <t>1011063</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>VILLA MARIA DEL TRIUNFO</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>GASCORVILL S.A.C.</t>
+          <t>ESTACION DE SERVICIOS NUEVO</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Av. Pacasmayo 3, Callao 07031</t>
+          <t>Av Pachacutec 5295, Villa María del Triunfo 15818</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -686,75 +686,75 @@
         <v>4000</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1011063</t>
+          <t>P171</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>VILLA MARIA DEL TRIUNFO</t>
+          <t>CANTO GRANDE</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ESTACION DE SERVICIOS NUEVO</t>
+          <t>E/S WIESSE</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Av Pachacutec 5295, Villa María del Triunfo 15818</t>
+          <t>Av. El Bosque, San Juan de Lurigancho 15419</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4000</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P171</t>
+          <t>P217</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CANTO GRANDE</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>E/S WIESSE</t>
+          <t>E/S EL ROSARIO</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Av. El Bosque, San Juan de Lurigancho 15419</t>
+          <t>Av. Angamos 1795, Surquillo 15048</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -785,34 +785,34 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>P217</t>
+          <t>1002737</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>E/S EL ROSARIO</t>
+          <t>ESTACION DE SERVICIO NIAGARA S.R.L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Av. Angamos 1795, Surquillo 15048</t>
+          <t>Jiron Elvira Garcia y Garcia 2790, Cercado de Lima 15081</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>AFZ-941</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -831,39 +831,39 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1002737</t>
+          <t>P152</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ESTACION DE SERVICIO NIAGARA S.R.L.</t>
+          <t>E/S NAVAL</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Jiron Elvira Garcia y Garcia 2790, Cercado de Lima 15081</t>
+          <t>Av. San Luis 2480, San Borja 15037</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AFZ-941</t>
+          <t>AXK-781</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -877,27 +877,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P152</t>
+          <t>1002685</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>LA MOLINA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>E/S NAVAL</t>
+          <t>ORGANIZACION FUTURO S.A.C.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Av. San Luis 2480, San Borja 15037</t>
+          <t>Av. Javier Prado Este 6651, La Molina 15012</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
@@ -919,38 +919,38 @@
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1002685</t>
+          <t>P122</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>LA MOLINA</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ORGANIZACION FUTURO S.A.C.</t>
+          <t>E/S ALEGRÍA</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Av. Javier Prado Este 6651, La Molina 15012</t>
+          <t>Av. Alfredo Benavides 2116, Miraflores 15048</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AXK-781</t>
+          <t>ALT-928</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -965,11 +965,11 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>P122</t>
+          <t>P133</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>E/S ALEGRÍA</t>
+          <t>E/S ARMENDARIZ</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Av. Alfredo Benavides 2116, Miraflores 15048</t>
+          <t>Armendariz 575, Miraflores 15074</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ALT-928</t>
+          <t>ATB-820</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1015,22 +1015,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>P133</t>
+          <t>P125</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>RÍMAC</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>E/S ARMENDARIZ</t>
+          <t>E/S LOLESA</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Armendariz 575, Miraflores 15074</t>
+          <t>Av. Francisco Pizarro Cdra. 9, Rímac 15094</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1042,7 +1042,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ATB-820</t>
+          <t>BEL-721</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1061,22 +1061,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>P125</t>
+          <t>P101</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>RÍMAC</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>E/S LOLESA</t>
+          <t>E/S MIGUEL ANGEL</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Av. Francisco Pizarro Cdra. 9, Rímac 15094</t>
+          <t>Av. Lima 2000, Villa María del Triunfo 15816</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1088,41 +1088,41 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BEL-721</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>P101</t>
+          <t>P184</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>SAN MARTÍN DE PORRES</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>E/S MIGUEL ANGEL</t>
+          <t>E/S GAMARRA</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Av. Lima 2000, Villa María del Triunfo 15816</t>
+          <t>Av. Universitaria 2015, San Martín de Porres 15108</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1134,7 +1134,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1146,29 +1146,29 @@
         <v>4500</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>P184</t>
+          <t>P181</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE PORRES</t>
+          <t>PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>E/S GAMARRA</t>
+          <t>E/S PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Av. Universitaria 2015, San Martín de Porres 15108</t>
+          <t>Carr. Panamericana Sur, 1S, Lima</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1180,16 +1180,16 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="D17" t="n">
         <v>7</v>
@@ -1199,131 +1199,131 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>P201</t>
+          <t>1002643</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>E/S CHANCAY 1</t>
+          <t>ESTACION CORMAR S.A.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 90.5, 15130</t>
+          <t>W2XV+88P, Ate 15012</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>ANC-872</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1002643</t>
+          <t>1013034</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ESTACION CORMAR S.A.</t>
+          <t>MOVIL BUS S.A.C.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>W2XV+88P, Ate 15012</t>
+          <t>Av. Materiales 2215, Cercado de Lima 15081</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>Industria</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1013034</t>
+          <t>1010840</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>COMAS</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>MOVIL BUS S.A.C.</t>
+          <t>GRIFO TRAPICHE S.R.L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Av. Materiales 2215, Cercado de Lima 15081</t>
+          <t>Au. Chillón Trapiche 665, Comas 15316</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Industria</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1337,27 +1337,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1010840</t>
+          <t>P201</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>COMAS</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>GRIFO TRAPICHE S.R.L.</t>
+          <t>E/S CHANCAY 1</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Au. Chillón Trapiche 665, Comas 15316</t>
+          <t>Av. Panamericana Nte. 90.5, 15130</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
@@ -1379,26 +1379,26 @@
         <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>P193</t>
+          <t>P294</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>E/S CHILCA</t>
+          <t>E/S SAN JOSÉ</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1S, Chilca 15871</t>
+          <t>Av. Panamericana Nte. 928, Barranca 15169</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1594,41 +1594,41 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>9000</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>P294</t>
+          <t>P165</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>E/S SAN JOSÉ</t>
+          <t>E/S ESCARDÓ</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 928, Barranca 15169</t>
+          <t>Av. Rafael Escardó 250, San Miguel 15087</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1640,138 +1640,46 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>D5D-868</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>9000</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>P165</t>
+          <t>1011014</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>E/S ESCARDÓ</t>
+          <t>PACHACUTEC INVERSIONES GENERALES S.A.C.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Av. Rafael Escardó 250, San Miguel 15087</t>
+          <t>Av El Sol 127, Villa EL Salvador 15816</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AXY-949</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D28" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>P135</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>ATE</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>E/S ATE 1</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Tomas Alva Edison 160, Lima 15022</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>D5D-868</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D29" t="n">
-        <v>6</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>P181</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>PUNTA HERMOSA</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>E/S PUNTA HERMOSA</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Carr. Panamericana Sur, 1S, Lima</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2263,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ATB-820</t>
+          <t>ALT-928</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2370,38 +2278,38 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>P236</t>
+          <t>1011710</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>JESUS MARIA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>E/S HUIRACOCHA</t>
+          <t>GASCORVILL S.A.C.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Av. Gregorio Escobedo 410, Jesús María 15072</t>
+          <t>Av. Pacasmayo 3, Callao 07031</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BEL-721</t>
+          <t>ATB-820</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2420,22 +2328,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>P215</t>
+          <t>P236</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>JESUS MARIA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>E/S EL CARMELO</t>
+          <t>E/S HUIRACOCHA</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Av. la Marina 3112, San Miguel 15088</t>
+          <t>Av. Gregorio Escobedo 410, Jesús María 15072</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2447,41 +2355,41 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>BEL-721</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>P390</t>
+          <t>P215</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>OQUENDO</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>E/S GAMBETA</t>
+          <t>E/S EL CARMELO</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Av. Nestor Gambetta 76, Callao 07046</t>
+          <t>Av. la Marina 3112, San Miguel 15088</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2493,7 +2401,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2505,29 +2413,29 @@
         <v>4500</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>P275</t>
+          <t>P390</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>OQUENDO</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>E/S PANSUR</t>
+          <t>E/S GAMBETA</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
+          <t>Av. Nestor Gambetta 76, Callao 07046</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2539,16 +2447,16 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D17" t="n">
         <v>7</v>
@@ -2558,131 +2466,131 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1010770</t>
+          <t>P275</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CORPORACION BLUE GAS S.A.C.</t>
+          <t>E/S PANSUR</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Jirón el Alamo 121, Lima 15023</t>
+          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>P159</t>
+          <t>1010770</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>E/S COLONIAL 1</t>
+          <t>CORPORACION BLUE GAS S.A.C.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
+          <t>Jirón el Alamo 121, Lima 15023</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>ANC-872</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1011014</t>
+          <t>P159</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PACHACUTEC INVERSIONES GENERALES S.A.C.</t>
+          <t>E/S COLONIAL 1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Av El Sol 127, Villa EL Salvador 15816</t>
+          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ANW-916</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2723,7 +2631,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>APM-857</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2732,7 +2640,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="D21" t="n">
         <v>8</v>
@@ -2742,22 +2650,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>P327</t>
+          <t>P193</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ZARATE</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>E/S ZARATE</t>
+          <t>E/S CHILCA</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
+          <t>1S, Chilca 15871</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2769,41 +2677,41 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AYR-771</t>
+          <t>APM-857</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>P223</t>
+          <t>P327</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>ZARATE</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>E/S FELVERANA</t>
+          <t>E/S ZARATE</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
+          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2815,7 +2723,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BED-794</t>
+          <t>AYR-771</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2827,34 +2735,34 @@
         <v>9000</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1015412</t>
+          <t>P223</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>NEPTUNIA S.A.</t>
+          <t>E/S FELVERANA</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Av. Argentina 2085, Callao 07001</t>
+          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Industria</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3024,41 +2932,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>AUG-888</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>P135</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>E/S TOMÁS MARSANO</t>
+          <t>E/S ATE 1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
+          <t>Tomas Alva Edison 160, Lima 15022</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -3070,41 +2978,41 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4000</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P244</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>E/S LA MARINA</t>
+          <t>E/S TOMÁS MARSANO</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Av. la Marina 2155, San Miguel 15087</t>
+          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -3116,104 +3024,104 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>AUG-895</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4000</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>P113</t>
+          <t>1015412</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>E/S HUARALINO</t>
+          <t>NEPTUNIA S.A.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Chancay 351, Huaral 15202</t>
+          <t>Av. Argentina 2085, Callao 07001</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Industria</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D1J-885</t>
+          <t>AHP-831</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4000</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1010564</t>
+          <t>P244</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>VELDI S.A.</t>
+          <t>E/S LA MARINA</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Av. Gral. Córdova 1025, Cercado de Lima 15076</t>
+          <t>Av. la Marina 2155, San Miguel 15087</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AXK-781</t>
+          <t>V5I-821</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3227,22 +3135,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>P199</t>
+          <t>P113</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SAN ISIDRO</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>E/S CASTAÑOS</t>
+          <t>E/S HUARALINO</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
+          <t>Chancay 351, Huaral 15202</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3254,87 +3162,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P102</t>
+          <t>1010564</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>E/S 28 DE JULIO</t>
+          <t>VELDI S.A.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
+          <t>Av. Gral. Córdova 1025, Cercado de Lima 15076</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>AXK-781</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>P309</t>
+          <t>P199</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>SAN ISIDRO</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>E/S SUDAMERICANO</t>
+          <t>E/S CASTAÑOS</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
+          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3346,41 +3254,41 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>P285</t>
+          <t>P102</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>E/S REPÚBLICA</t>
+          <t>E/S 28 DE JULIO</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
+          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -3392,41 +3300,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P194</t>
+          <t>P309</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>E/S CALLE DERECHA</t>
+          <t>E/S SUDAMERICANO</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Av García Alonso 195, Huaral 15201</t>
+          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3438,44 +3346,136 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>B7N-933</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>P285</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>MIRAFLORES</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>E/S REPÚBLICA</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B7K-982</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TRANSPORTES TESA</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>P194</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>HUARAL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>E/S CALLE DERECHA</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Av García Alonso 195, Huaral 15201</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>AYR-771</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>TRANSPORTES TESA</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C13" t="n">
         <v>9000</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D13" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>P283</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>CALLAO</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>E/S QUILCA</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Av. Quilca 531, San Martín de Porres 15106</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>COESTI</t>
         </is>

--- a/datos_salida/Recorrido_Estaciones_Unidades.xlsx
+++ b/datos_salida/Recorrido_Estaciones_Unidades.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1680,6 +1680,236 @@
       <c r="J27" t="inlineStr">
         <is>
           <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>P193</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>CHILCA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>E/S CHILCA</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1S, Chilca 15871</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>P215</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>SAN MIGUEL</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>E/S EL CARMELO</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Av. la Marina 3112, San Miguel 15088</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>F3Y-722</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>P275</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>LURIN</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>E/S PANSUR</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>F3Y-722</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1002634</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>ATE</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>INVERSIONES LUMARCO S.A.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Carretera Central km 11.50 AAHH La Estrella, ATE, Lima</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Dealer</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ADY-911</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>LOGISTIC TRANSPORT PERU SAC</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>P223</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>ATE</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>E/S FELVERANA</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1822,22 +2052,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1002634</t>
+          <t>1003089</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>CHORRILLOS</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>INVERSIONES LUMARCO S.A.</t>
+          <t>SERVICENTRO TACALA S.R.L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Carretera Central km 11.50 AAHH La Estrella, ATE, Lima</t>
+          <t>Av San Martín, Chorrillos 15057</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2098,27 +2328,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1003089</t>
+          <t>1000156</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CHORRILLOS</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SERVICENTRO TACALA S.R.L.</t>
+          <t>PRODUCTOS DE ACERO CASSADO PRODAC S.A.C.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Av San Martín, Chorrillos 15057</t>
+          <t>Av. Nestor Gambetta 6429, Callao 07046</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>Industria</t>
         </is>
       </c>
     </row>
@@ -2144,27 +2374,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1000156</t>
+          <t>1002706</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>PACHACAMAC</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>PRODUCTOS DE ACERO CASSADO PRODAC S.A.C.</t>
+          <t>GRIFOS TERESA DE CALCUTA S.A.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Av. Nestor Gambetta 6429, Callao 07046</t>
+          <t>Dsv.Manchay, Car. Cieneguilla Nro. S/n (Km 11.5, Pachacamac</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Industria</t>
+          <t>Independientes</t>
         </is>
       </c>
     </row>
@@ -2236,34 +2466,34 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1002706</t>
+          <t>1011710</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PACHACAMAC</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>GRIFOS TERESA DE CALCUTA S.A.</t>
+          <t>GASCORVILL S.A.C.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Dsv.Manchay, Car. Cieneguilla Nro. S/n (Km 11.5, Pachacamac</t>
+          <t>Av. Pacasmayo 3, Callao 07031</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Independientes</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ALT-928</t>
+          <t>ATB-820</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2278,38 +2508,38 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1011710</t>
+          <t>P236</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>JESUS MARIA</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>GASCORVILL S.A.C.</t>
+          <t>E/S HUIRACOCHA</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Av. Pacasmayo 3, Callao 07031</t>
+          <t>Av. Gregorio Escobedo 410, Jesús María 15072</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ATB-820</t>
+          <t>BEL-721</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2328,22 +2558,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>P236</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>JESUS MARIA</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>E/S HUIRACOCHA</t>
+          <t>E/S TOMÁS MARSANO</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Av. Gregorio Escobedo 410, Jesús María 15072</t>
+          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2355,41 +2585,41 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BEL-721</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>P215</t>
+          <t>P390</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>OQUENDO</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>E/S EL CARMELO</t>
+          <t>E/S GAMBETA</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Av. la Marina 3112, San Miguel 15088</t>
+          <t>Av. Nestor Gambetta 76, Callao 07046</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2401,7 +2631,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCQ-737</t>
+          <t>BJV-928</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2413,29 +2643,29 @@
         <v>4500</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>P390</t>
+          <t>P159</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>OQUENDO</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>E/S GAMBETA</t>
+          <t>E/S COLONIAL 1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Av. Nestor Gambetta 76, Callao 07046</t>
+          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2447,16 +2677,16 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="D17" t="n">
         <v>7</v>
@@ -2466,131 +2696,131 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>P275</t>
+          <t>1010770</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>E/S PANSUR</t>
+          <t>CORPORACION BLUE GAS S.A.C.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Km, Antigua Panamericana Sur 30, Lurín</t>
+          <t>Jirón el Alamo 121, Lima 15023</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B7N-933</t>
+          <t>ANC-872</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1010770</t>
+          <t>P327</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>ZARATE</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CORPORACION BLUE GAS S.A.C.</t>
+          <t>E/S ZARATE</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Jirón el Alamo 121, Lima 15023</t>
+          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ANC-872</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>P159</t>
+          <t>1007571</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>E/S COLONIAL 1</t>
+          <t>SERVICIOS Y REPRESENTACIONES TACNA</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Ricardo Herrera 1406, Cercado de Lima 15082</t>
+          <t>Av Bausate y Meza 1050, La Victoria 15018</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B7K-982</t>
+          <t>ANW-916</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2604,27 +2834,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1007571</t>
+          <t>P296</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>SAN LUIS</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>SERVICIOS Y REPRESENTACIONES TACNA</t>
+          <t>E/S SAN LUIS 1</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Av Bausate y Meza 1050, La Victoria 15018</t>
+          <t>Av. Nicolás Ayllón 1340, San Luis 15019</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
@@ -2646,26 +2876,26 @@
         <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>P193</t>
+          <t>P135</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>E/S CHILCA</t>
+          <t>E/S ATE 1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1S, Chilca 15871</t>
+          <t>Tomas Alva Edison 160, Lima 15022</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2696,22 +2926,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>P327</t>
+          <t>P309</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ZARATE</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>E/S ZARATE</t>
+          <t>E/S SUDAMERICANO</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401</t>
+          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2742,22 +2972,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>P223</t>
+          <t>P283</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>E/S FELVERANA</t>
+          <t>E/S QUILCA</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón 2162, Ate 15022</t>
+          <t>Av. Quilca 531, San Martín de Porres 15106</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2788,22 +3018,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>P296</t>
+          <t>P244</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>SAN LUIS</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>E/S SAN LUIS 1</t>
+          <t>E/S LA MARINA</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón 1340, San Luis 15019</t>
+          <t>Av. la Marina 2155, San Miguel 15087</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2855,6 +3085,98 @@
       <c r="J25" t="inlineStr">
         <is>
           <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AYX-789</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>JWENVERT TRANSPORTES</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>P199</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>SAN ISIDRO</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>E/S CASTAÑOS</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>COESTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BBF-813</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CORPORACIÓN ENRIQUE &amp; JANIS</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1015412</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>CALLAO</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NEPTUNIA S.A.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Av. Argentina 2085, Callao 07001</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Industria</t>
         </is>
       </c>
     </row>
@@ -2869,7 +3191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2932,41 +3254,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AUG-888</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>P135</t>
+          <t>P113</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>E/S ATE 1</t>
+          <t>E/S HUARALINO</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Tomas Alva Edison 160, Lima 15022</t>
+          <t>Chancay 351, Huaral 15202</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2978,12 +3300,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>D1J-885</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>HERMELINDA HUATAY MANTILLA</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2997,114 +3319,114 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>1010564</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>E/S TOMÁS MARSANO</t>
+          <t>VELDI S.A.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Av Tomás Marsano 4080, Santiago de Surco 15039</t>
+          <t>Av. Gral. Córdova 1025, Cercado de Lima 15076</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AUG-895</t>
+          <t>BCQ-737</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>MULTITRANS RR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1015412</t>
+          <t>P102</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>NEPTUNIA S.A.</t>
+          <t>E/S 28 DE JULIO</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Av. Argentina 2085, Callao 07001</t>
+          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Industria</t>
+          <t>COESTI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AHP-831</t>
+          <t>B7N-933</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>INVERSIONES GALVEZ MARTINEZ</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>P244</t>
+          <t>P285</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>E/S LA MARINA</t>
+          <t>E/S REPÚBLICA</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Av. la Marina 2155, San Miguel 15087</t>
+          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -3116,26 +3438,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>V5I-821</t>
+          <t>B7K-982</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UL&amp;PH INVERSIONES SAC</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>P113</t>
+          <t>P194</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3145,337 +3467,15 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>E/S HUARALINO</t>
+          <t>E/S CALLE DERECHA</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Chancay 351, Huaral 15202</t>
+          <t>Av García Alonso 195, Huaral 15201</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>D1J-885</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HERMELINDA HUATAY MANTILLA</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1010564</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>MIRAFLORES</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VELDI S.A.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Av. Gral. Córdova 1025, Cercado de Lima 15076</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Dealer</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AXK-781</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LOGISTIC TRANSPORT PERU SAC</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>P199</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>SAN ISIDRO</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>E/S CASTAÑOS</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Av Javier Prado Oeste 1895, San Isidro 15076</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>BCQ-737</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>P102</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>LA VICTORIA</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>E/S 28 DE JULIO</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Avenida 28 de Julio 2200, La Victoria 15018</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>BJV-928</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MULTITRANS RR</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>P309</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>CERCADO DE LIMA</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>E/S SUDAMERICANO</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Av. Tingo Maria, Cercado de Lima 15082</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>B7N-933</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>INVERSIONES GALVEZ MARTINEZ</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>P285</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>MIRAFLORES</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>E/S REPÚBLICA</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Av. Andrés Aramburú 390, Miraflores 15046</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>B7K-982</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D12" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>P194</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>HUARAL</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>E/S CALLE DERECHA</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Av García Alonso 195, Huaral 15201</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AYR-771</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>P283</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>CALLAO</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>E/S QUILCA</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Av. Quilca 531, San Martín de Porres 15106</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
         <is>
           <t>COESTI</t>
         </is>
